--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HeroScroll\HeroScrollPj\Server\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3463C303-B582-4092-8545-2E4D87A95ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23925" yWindow="1875" windowWidth="15750" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -86,65 +80,400 @@
     <t>曲阳</t>
   </si>
   <si>
-    <t>0,-149,-2,3;1,-149,-2,3;</t>
+    <t>0,-149,-2,1;1,-149,-2,1;</t>
   </si>
   <si>
     <t>汜水关</t>
   </si>
   <si>
-    <t>0,-58,-3,3;1,-58,-3,3;2,-58,-3,3;</t>
+    <t>0,-58,-3,1;1,-58,-3,1;2,-58,-3,1;</t>
+  </si>
+  <si>
+    <t>8,0,19,2;9,0,433,2;10,0,173,2;</t>
+  </si>
+  <si>
+    <t>宣阳门</t>
   </si>
   <si>
     <t>8,0,19,3;9,0,433,3;10,0,173,3;</t>
   </si>
   <si>
-    <t>宣阳门</t>
+    <t>洛阳</t>
+  </si>
+  <si>
+    <t>0,-152,-4,3;1,-152,-4,3;2,-152,-4,3;8,0,19,3;9,0,433,3;10,0,173,3;</t>
+  </si>
+  <si>
+    <t>东岭关</t>
   </si>
   <si>
     <t>8,0,19,5;9,0,433,5;10,0,173,5;</t>
   </si>
   <si>
-    <t>洛阳</t>
+    <t>荥阳</t>
   </si>
   <si>
     <t>0,-152,-4,5;1,-152,-4,5;2,-152,-4,5;8,0,19,5;9,0,433,5;10,0,173,5;</t>
-  </si>
-  <si>
-    <t>东岭关</t>
-  </si>
-  <si>
-    <t>荥阳</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,34 +481,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -437,24 +1052,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.13888888888889" style="2"/>
+    <col min="2" max="2" width="12.8518518518519" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.287037037037" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -504,26 +1119,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.57407407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5740740740741" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.712962962963" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.8518518518518" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -707,7 +1324,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -730,7 +1347,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -741,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -753,10 +1370,11 @@
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -89,31 +89,22 @@
     <t>0,-58,-3,1;1,-58,-3,1;2,-58,-3,1;</t>
   </si>
   <si>
-    <t>8,0,19,2;9,0,433,2;10,0,173,2;</t>
+    <t>8,0,19,1;9,0,433,1;7,0,173,1;</t>
   </si>
   <si>
     <t>宣阳门</t>
   </si>
   <si>
-    <t>8,0,19,3;9,0,433,3;10,0,173,3;</t>
-  </si>
-  <si>
     <t>洛阳</t>
   </si>
   <si>
-    <t>0,-152,-4,3;1,-152,-4,3;2,-152,-4,3;8,0,19,3;9,0,433,3;10,0,173,3;</t>
+    <t>0,-152,-4,1;1,-152,-4,1;2,-152,-4,1;8,0,19,1;9,0,433,1;7,0,173,1;</t>
   </si>
   <si>
     <t>东岭关</t>
   </si>
   <si>
-    <t>8,0,19,5;9,0,433,5;10,0,173,5;</t>
-  </si>
-  <si>
     <t>荥阳</t>
-  </si>
-  <si>
-    <t>0,-152,-4,5;1,-152,-4,5;2,-152,-4,5;8,0,19,5;9,0,433,5;10,0,173,5;</t>
   </si>
 </sst>
 </file>
@@ -121,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,6 +126,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -143,7 +149,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,22 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,93 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,13 +279,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,37 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,115 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,15 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,6 +484,59 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,21 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,45 +570,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1129,7 +1120,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1278,7 +1269,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1289,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1301,7 +1292,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1312,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1324,7 +1315,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1347,7 +1338,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1358,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1370,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HeroScroll\HeroScrollPj\Server\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F223F37-5F87-43D7-BF6F-18D58953A2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24750" yWindow="630" windowWidth="15300" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -47,15 +41,21 @@
     <t>千里走单骑</t>
   </si>
   <si>
-    <t>5,6,7</t>
+    <t>5,6,7,8</t>
   </si>
   <si>
     <t>Index</t>
   </si>
   <si>
+    <t>NextPoints</t>
+  </si>
+  <si>
     <t>eventType</t>
   </si>
   <si>
+    <t>merit</t>
+  </si>
+  <si>
     <t>maxCards</t>
   </si>
   <si>
@@ -65,12 +65,21 @@
     <t>formation[Pos,Type(-military),Id(-rare),level]</t>
   </si>
   <si>
+    <t>关卡</t>
+  </si>
+  <si>
     <t>关卡名字</t>
   </si>
   <si>
+    <t>下个关卡</t>
+  </si>
+  <si>
     <t>事件类型</t>
   </si>
   <si>
+    <t>功绩</t>
+  </si>
+  <si>
     <t>最大卡牌数</t>
   </si>
   <si>
@@ -107,50 +116,373 @@
     <t>东岭关</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>荥阳</t>
   </si>
   <si>
-    <t>下个关卡</t>
-  </si>
-  <si>
-    <t>NextPoints</t>
-  </si>
-  <si>
-    <t>merit</t>
-  </si>
-  <si>
-    <t>功绩</t>
+    <t>白狼山</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -158,34 +490,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -443,24 +1061,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.13888888888889" style="2"/>
+    <col min="2" max="2" width="12.8518518518519" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.287037037037" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -510,27 +1128,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="77.85546875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.57407407407407" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.57407407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5740740740741" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.8518518518519" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.4259259259259" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.712962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="77.8518518518518" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -544,22 +1164,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -567,28 +1187,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -599,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -617,7 +1237,7 @@
         <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -628,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -646,7 +1266,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -675,7 +1295,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -686,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -704,7 +1324,7 @@
         <v>50</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -715,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -733,7 +1353,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -744,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -762,7 +1382,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -773,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -791,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -802,11 +1422,9 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -820,10 +1438,40 @@
         <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11051" windowHeight="9815" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="203">
   <si>
     <t>id</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>汜水关</t>
-  </si>
-  <si>
-    <t>0,3,0,1;1,3,0,1;7,0,173,1;</t>
   </si>
   <si>
     <t>7,0,173,1;</t>
@@ -716,10 +713,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -737,6 +734,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -744,15 +748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,17 +763,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,11 +783,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,23 +822,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,31 +855,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,6 +865,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,7 +897,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +963,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,163 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,30 +1088,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1142,15 +1115,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1162,6 +1126,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,10 +1194,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,133 +1206,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1824,8 +1821,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1922,22 +1919,22 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1948,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -1963,16 +1960,16 @@
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1998,16 +1995,16 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2018,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2033,16 +2030,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2053,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -2068,16 +2065,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2088,7 +2085,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -2103,16 +2100,16 @@
         <v>7</v>
       </c>
       <c r="H8" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2123,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2138,22 +2135,22 @@
         <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2164,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2179,22 +2176,22 @@
         <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2205,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -2220,22 +2217,22 @@
         <v>5</v>
       </c>
       <c r="H11" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2246,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4">
         <v>-1</v>
@@ -2261,22 +2258,22 @@
         <v>7</v>
       </c>
       <c r="H12" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2287,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2302,22 +2299,22 @@
         <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2328,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -2343,22 +2340,22 @@
         <v>3</v>
       </c>
       <c r="H14" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="L14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2369,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2384,22 +2381,22 @@
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2410,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -2425,22 +2422,22 @@
         <v>5</v>
       </c>
       <c r="H16" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2451,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
@@ -2466,22 +2463,22 @@
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2492,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2507,22 +2504,22 @@
         <v>3</v>
       </c>
       <c r="H18" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2533,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2548,22 +2545,22 @@
         <v>5</v>
       </c>
       <c r="H19" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="M19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2574,7 +2571,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2589,22 +2586,22 @@
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2615,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
@@ -2630,22 +2627,22 @@
         <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2656,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2671,22 +2668,22 @@
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2697,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2712,22 +2709,22 @@
         <v>5</v>
       </c>
       <c r="H23" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2738,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -2753,22 +2750,22 @@
         <v>5</v>
       </c>
       <c r="H24" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2779,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2794,22 +2791,22 @@
         <v>5</v>
       </c>
       <c r="H25" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2820,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="4">
         <v>-1</v>
@@ -2835,22 +2832,22 @@
         <v>7</v>
       </c>
       <c r="H26" s="4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="L26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +2862,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -2876,13 +2873,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2890,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2934,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2945,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2956,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2967,7 +2964,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2978,7 +2975,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2989,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3000,7 +2997,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3011,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -3028,8 +3025,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3041,19 +3038,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3061,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>179</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3081,7 +3078,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE("1,"&amp;H3&amp;"2,"&amp;I3&amp;"3,"&amp;J3&amp;"4,"&amp;K3&amp;"5,"&amp;L3)</f>
@@ -3092,19 +3089,19 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" t="s">
         <v>183</v>
       </c>
-      <c r="I3" t="s">
-        <v>184</v>
-      </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3115,7 +3112,7 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" t="str">
         <f>CONCATENATE("1,"&amp;H4&amp;"2,"&amp;I4&amp;"3,"&amp;J4&amp;"4,"&amp;K4&amp;"5,"&amp;L4)</f>
@@ -3126,19 +3123,19 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3149,7 +3146,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" t="str">
         <f>CONCATENATE("1,"&amp;H5&amp;"2,"&amp;I5&amp;"3,"&amp;J5&amp;"4,"&amp;K5&amp;"5,"&amp;L5)</f>
@@ -3160,19 +3157,19 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3183,7 +3180,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" t="str">
         <f>CONCATENATE("1,"&amp;H6&amp;"2,"&amp;I6&amp;"3,"&amp;J6&amp;"4,"&amp;K6&amp;"5,"&amp;L6)</f>
@@ -3194,19 +3191,19 @@
         <v>4-10</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3217,7 +3214,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:F13" si="0">CONCATENATE("1,"&amp;H7&amp;"2,"&amp;I7&amp;"3,"&amp;J7&amp;"4,"&amp;K7&amp;"5,"&amp;L7)</f>
@@ -3228,19 +3225,19 @@
         <v>11-20</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3251,7 +3248,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -3262,19 +3259,19 @@
         <v>21-30</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3285,7 +3282,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3296,19 +3293,19 @@
         <v>31-50</v>
       </c>
       <c r="H9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3319,7 +3316,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -3330,19 +3327,19 @@
         <v>51-100</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3353,7 +3350,7 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -3364,19 +3361,19 @@
         <v>101-500</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3387,7 +3384,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -3398,19 +3395,19 @@
         <v>501-1000</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3421,7 +3418,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -3432,19 +3429,19 @@
         <v>1001-9999</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3466,19 +3463,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
         <v>197</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>198</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3486,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>202</v>
-      </c>
-      <c r="D2" t="s">
-        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -120,6 +120,9 @@
     <t>排行榜</t>
   </si>
   <si>
+    <t>npc名字</t>
+  </si>
+  <si>
     <t>虎牢关</t>
   </si>
   <si>
@@ -129,36 +132,54 @@
     <t>1,2,3,4,5,6,7,8,9,10,11</t>
   </si>
   <si>
+    <t>董卓</t>
+  </si>
+  <si>
     <t>濮阳之战</t>
   </si>
   <si>
     <t>3,4,5</t>
   </si>
   <si>
+    <t>吕布</t>
+  </si>
+  <si>
     <t>官渡之战</t>
   </si>
   <si>
     <t>6,7,8,9</t>
   </si>
   <si>
+    <t>袁绍</t>
+  </si>
+  <si>
     <t>平定江东</t>
   </si>
   <si>
     <t>10,11,12,13,14</t>
   </si>
   <si>
+    <t>王朗</t>
+  </si>
+  <si>
     <t>一统北方</t>
   </si>
   <si>
     <t>15,16,17,18</t>
   </si>
   <si>
+    <t>单于</t>
+  </si>
+  <si>
     <t>赤壁之战</t>
   </si>
   <si>
     <t>19,20,21,22,23</t>
   </si>
   <si>
+    <t>曹操</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -237,9 +258,6 @@
     <t>7,0,19,1;</t>
   </si>
   <si>
-    <t>吕布</t>
-  </si>
-  <si>
     <t>东郡</t>
   </si>
   <si>
@@ -333,9 +351,6 @@
     <t>7,0,22,1;</t>
   </si>
   <si>
-    <t>袁绍</t>
-  </si>
-  <si>
     <t>,0,1245,1;</t>
   </si>
   <si>
@@ -417,9 +432,6 @@
     <t>7,0,291,1;</t>
   </si>
   <si>
-    <t>王朗</t>
-  </si>
-  <si>
     <t>,0,1220,1;</t>
   </si>
   <si>
@@ -574,9 +586,6 @@
   </si>
   <si>
     <t>7,0,39,1;</t>
-  </si>
-  <si>
-    <t>曹操</t>
   </si>
   <si>
     <t>Id</t>
@@ -715,8 +724,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -740,22 +749,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -763,7 +758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,8 +771,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,6 +781,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,6 +817,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -814,35 +848,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,9 +872,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +906,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,55 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +990,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,67 +1068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,6 +1097,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1108,9 +1135,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,24 +1159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1159,6 +1170,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,27 +1197,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,133 +1215,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1682,13 +1691,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.13888888888889" style="4"/>
     <col min="2" max="2" width="12.8518518518519" style="4" customWidth="1"/>
@@ -1711,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1724,89 +1733,110 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1821,8 +1851,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1843,28 +1873,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1872,28 +1902,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1904,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1922,19 +1952,19 @@
         <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1945,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -1963,13 +1993,13 @@
         <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1980,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
         <v>-1</v>
@@ -1998,13 +2028,13 @@
         <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2015,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2033,13 +2063,13 @@
         <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2050,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -2068,13 +2098,13 @@
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2085,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -2103,13 +2133,13 @@
         <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2120,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2138,19 +2168,19 @@
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2161,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2179,19 +2209,19 @@
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2202,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -2220,19 +2250,19 @@
         <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2243,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4">
         <v>-1</v>
@@ -2261,19 +2291,19 @@
         <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2284,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2302,19 +2332,19 @@
         <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2325,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -2343,19 +2373,19 @@
         <v>15</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2366,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2384,19 +2414,19 @@
         <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2407,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -2425,19 +2455,19 @@
         <v>15</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2448,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
@@ -2466,19 +2496,19 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2489,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2507,19 +2537,19 @@
         <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2530,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2548,19 +2578,19 @@
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2571,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2589,19 +2619,19 @@
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2612,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
@@ -2630,19 +2660,19 @@
         <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2653,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2671,19 +2701,19 @@
         <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2694,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2712,19 +2742,19 @@
         <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2735,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -2753,19 +2783,19 @@
         <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2776,7 +2806,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2794,19 +2824,19 @@
         <v>15</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2817,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D26" s="4">
         <v>-1</v>
@@ -2835,19 +2865,19 @@
         <v>15</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2873,13 +2903,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2887,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2931,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2942,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2953,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2964,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2975,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2986,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2997,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3008,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -3038,19 +3068,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3058,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3078,7 +3108,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE("1,"&amp;H3&amp;"2,"&amp;I3&amp;"3,"&amp;J3&amp;"4,"&amp;K3&amp;"5,"&amp;L3)</f>
@@ -3089,19 +3119,19 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3112,7 +3142,7 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F4" t="str">
         <f>CONCATENATE("1,"&amp;H4&amp;"2,"&amp;I4&amp;"3,"&amp;J4&amp;"4,"&amp;K4&amp;"5,"&amp;L4)</f>
@@ -3123,19 +3153,19 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3146,7 +3176,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F5" t="str">
         <f>CONCATENATE("1,"&amp;H5&amp;"2,"&amp;I5&amp;"3,"&amp;J5&amp;"4,"&amp;K5&amp;"5,"&amp;L5)</f>
@@ -3157,19 +3187,19 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3180,7 +3210,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F6" t="str">
         <f>CONCATENATE("1,"&amp;H6&amp;"2,"&amp;I6&amp;"3,"&amp;J6&amp;"4,"&amp;K6&amp;"5,"&amp;L6)</f>
@@ -3191,19 +3221,19 @@
         <v>4-10</v>
       </c>
       <c r="H6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" t="s">
         <v>186</v>
       </c>
-      <c r="I6" t="s">
-        <v>183</v>
-      </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3214,7 +3244,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:F13" si="0">CONCATENATE("1,"&amp;H7&amp;"2,"&amp;I7&amp;"3,"&amp;J7&amp;"4,"&amp;K7&amp;"5,"&amp;L7)</f>
@@ -3225,19 +3255,19 @@
         <v>11-20</v>
       </c>
       <c r="H7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" t="s">
         <v>186</v>
       </c>
-      <c r="I7" t="s">
-        <v>183</v>
-      </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3248,7 +3278,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -3259,19 +3289,19 @@
         <v>21-30</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3282,7 +3312,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3293,19 +3323,19 @@
         <v>31-50</v>
       </c>
       <c r="H9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" t="s">
         <v>189</v>
       </c>
-      <c r="I9" t="s">
-        <v>186</v>
-      </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3316,7 +3346,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -3327,19 +3357,19 @@
         <v>51-100</v>
       </c>
       <c r="H10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" t="s">
         <v>189</v>
       </c>
-      <c r="I10" t="s">
-        <v>186</v>
-      </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3350,7 +3380,7 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -3361,19 +3391,19 @@
         <v>101-500</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3384,7 +3414,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -3395,19 +3425,19 @@
         <v>501-1000</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3418,7 +3448,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -3429,19 +3459,19 @@
         <v>1001-9999</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3463,19 +3493,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3483,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -723,9 +723,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -743,29 +743,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,15 +771,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,15 +826,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -825,26 +841,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,22 +865,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -880,7 +873,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,6 +906,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -924,13 +960,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +1044,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,73 +1074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,55 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,39 +1097,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1160,25 +1127,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,151 +1155,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1788,10 +1788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1805,10 +1802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
+    <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1822,10 +1816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
+    <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="207">
   <si>
     <t>id</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>单位，数量；</t>
+  </si>
+  <si>
+    <t>chest</t>
   </si>
   <si>
     <t>1,5;2,3;3,5;4,5;5,5;</t>
@@ -722,10 +725,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -749,10 +752,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,6 +775,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -780,14 +791,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,6 +820,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -809,17 +844,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,27 +859,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,14 +883,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,43 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,37 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,37 +957,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,19 +1011,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,19 +1065,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,11 +1105,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,21 +1149,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,17 +1171,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,8 +1195,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,10 +1206,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,133 +1218,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1693,7 +1696,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3044,17 +3047,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="24.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="11.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="24.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="11.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3074,7 +3078,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3090,8 +3094,11 @@
       <c r="E2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3099,33 +3106,36 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" t="str">
-        <f>CONCATENATE("1,"&amp;H3&amp;"2,"&amp;I3&amp;"3,"&amp;J3&amp;"4,"&amp;K3&amp;"5,"&amp;L3)</f>
+        <v>185</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f>CONCATENATE("1,"&amp;I3&amp;"2,"&amp;J3&amp;"3,"&amp;K3&amp;"4,"&amp;L3&amp;"5,"&amp;M3)</f>
         <v>1,5;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <f>RkRaking!B3</f>
         <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>185</v>
       </c>
       <c r="I3" t="s">
         <v>186</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>186</v>
+      </c>
+      <c r="M3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3133,33 +3143,36 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" t="str">
-        <f>CONCATENATE("1,"&amp;H4&amp;"2,"&amp;I4&amp;"3,"&amp;J4&amp;"4,"&amp;K4&amp;"5,"&amp;L4)</f>
+        <v>188</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>CONCATENATE("1,"&amp;I4&amp;"2,"&amp;J4&amp;"3,"&amp;K4&amp;"4,"&amp;L4&amp;"5,"&amp;M4)</f>
         <v>1,3;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f>RkRaking!B4</f>
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" t="s">
         <v>186</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>186</v>
       </c>
-      <c r="J4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3167,33 +3180,36 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" t="str">
-        <f>CONCATENATE("1,"&amp;H5&amp;"2,"&amp;I5&amp;"3,"&amp;J5&amp;"4,"&amp;K5&amp;"5,"&amp;L5)</f>
+        <v>188</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f>CONCATENATE("1,"&amp;I5&amp;"2,"&amp;J5&amp;"3,"&amp;K5&amp;"4,"&amp;L5&amp;"5,"&amp;M5)</f>
         <v>1,3;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f>RkRaking!B5</f>
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="s">
         <v>186</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>186</v>
       </c>
-      <c r="J5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3201,33 +3217,36 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" t="str">
-        <f>CONCATENATE("1,"&amp;H6&amp;"2,"&amp;I6&amp;"3,"&amp;J6&amp;"4,"&amp;K6&amp;"5,"&amp;L6)</f>
+        <v>189</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CONCATENATE("1,"&amp;I6&amp;"2,"&amp;J6&amp;"3,"&amp;K6&amp;"4,"&amp;L6&amp;"5,"&amp;M6)</f>
         <v>1,2;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <f>RkRaking!B6</f>
         <v>4-10</v>
       </c>
-      <c r="H6" t="s">
-        <v>189</v>
-      </c>
       <c r="I6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" t="s">
         <v>186</v>
       </c>
-      <c r="J6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K6" t="s">
-        <v>185</v>
-      </c>
       <c r="L6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>186</v>
+      </c>
+      <c r="M6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3235,33 +3254,36 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ref="F7:F13" si="0">CONCATENATE("1,"&amp;H7&amp;"2,"&amp;I7&amp;"3,"&amp;J7&amp;"4,"&amp;K7&amp;"5,"&amp;L7)</f>
+        <v>189</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G13" si="0">CONCATENATE("1,"&amp;I7&amp;"2,"&amp;J7&amp;"3,"&amp;K7&amp;"4,"&amp;L7&amp;"5,"&amp;M7)</f>
         <v>1,2;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <f>RkRaking!B7</f>
         <v>11-20</v>
       </c>
-      <c r="H7" t="s">
-        <v>189</v>
-      </c>
       <c r="I7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" t="s">
         <v>186</v>
       </c>
-      <c r="J7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" t="s">
-        <v>185</v>
-      </c>
       <c r="L7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>186</v>
+      </c>
+      <c r="M7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3269,33 +3291,36 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" t="str">
+        <v>191</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>1,2;2,2;3,5;4,5;5,5;</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <f>RkRaking!B8</f>
         <v>21-30</v>
       </c>
-      <c r="H8" t="s">
-        <v>189</v>
-      </c>
       <c r="I8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>186</v>
+      </c>
+      <c r="M8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3303,33 +3328,36 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" t="str">
+        <v>192</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>1,1;2,2;3,5;4,5;5,5;</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="H9" s="1" t="str">
         <f>RkRaking!B9</f>
         <v>31-50</v>
       </c>
-      <c r="H9" t="s">
-        <v>192</v>
-      </c>
       <c r="I9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>186</v>
+      </c>
+      <c r="M9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3337,33 +3365,36 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" t="str">
+        <v>194</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>1,1;2,2;3,4;4,5;5,5;</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="H10" s="1" t="str">
         <f>RkRaking!B10</f>
         <v>51-100</v>
       </c>
-      <c r="H10" t="s">
-        <v>192</v>
-      </c>
       <c r="I10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>186</v>
+      </c>
+      <c r="M10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3371,33 +3402,36 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" t="str">
+        <v>196</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>1,0;2,1;3,3;4,5;5,5;</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="H11" s="1" t="str">
         <f>RkRaking!B11</f>
         <v>101-500</v>
       </c>
-      <c r="H11" t="s">
-        <v>196</v>
-      </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" t="s">
         <v>186</v>
       </c>
-      <c r="K11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3405,33 +3439,36 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" t="str">
+        <v>198</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>1,0;2,0;3,3;4,5;5,5;</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="H12" s="1" t="str">
         <f>RkRaking!B12</f>
         <v>501-1000</v>
       </c>
-      <c r="H12" t="s">
-        <v>196</v>
-      </c>
       <c r="I12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" t="s">
         <v>186</v>
       </c>
-      <c r="K12" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3439,30 +3476,33 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" t="str">
+        <v>199</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>1,0;2,0;3,0;4,5;5,5;</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="H13" s="1" t="str">
         <f>RkRaking!B13</f>
         <v>1001-9999</v>
       </c>
-      <c r="H13" t="s">
-        <v>196</v>
-      </c>
       <c r="I13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L13" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="M13" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3487,16 +3527,16 @@
         <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3504,13 +3544,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -725,10 +725,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -752,22 +752,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -783,23 +774,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,15 +798,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,6 +807,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,14 +835,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -872,6 +848,30 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -909,7 +909,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +963,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +993,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,85 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,25 +1065,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,26 +1100,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1138,6 +1118,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1149,30 +1138,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,9 +1159,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,10 +1206,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,10 +1218,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,121 +1230,121 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3047,18 +3047,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="24.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="11.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="24.8518518518519" customWidth="1"/>
+    <col min="9" max="9" width="11.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3098,12 +3098,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>185</v>
@@ -3111,22 +3111,22 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="str">
-        <f>CONCATENATE("1,"&amp;I3&amp;"2,"&amp;J3&amp;"3,"&amp;K3&amp;"4,"&amp;L3&amp;"5,"&amp;M3)</f>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE("1,"&amp;J3&amp;"2,"&amp;K3&amp;"3,"&amp;L3&amp;"4,"&amp;M3&amp;"5,"&amp;N3)</f>
         <v>1,5;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <f>RkRaking!B3</f>
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>186</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>187</v>
-      </c>
-      <c r="K3" t="s">
-        <v>186</v>
       </c>
       <c r="L3" t="s">
         <v>186</v>
@@ -3134,13 +3134,16 @@
       <c r="M3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
@@ -3148,22 +3151,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="str">
-        <f>CONCATENATE("1,"&amp;I4&amp;"2,"&amp;J4&amp;"3,"&amp;K4&amp;"4,"&amp;L4&amp;"5,"&amp;M4)</f>
+      <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE("1,"&amp;J4&amp;"2,"&amp;K4&amp;"3,"&amp;L4&amp;"4,"&amp;M4&amp;"5,"&amp;N4)</f>
         <v>1,3;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f>RkRaking!B4</f>
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>187</v>
-      </c>
       <c r="J4" t="s">
         <v>187</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L4" t="s">
         <v>186</v>
@@ -3171,13 +3174,16 @@
       <c r="M4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
@@ -3185,22 +3191,22 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="str">
-        <f>CONCATENATE("1,"&amp;I5&amp;"2,"&amp;J5&amp;"3,"&amp;K5&amp;"4,"&amp;L5&amp;"5,"&amp;M5)</f>
+      <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE("1,"&amp;J5&amp;"2,"&amp;K5&amp;"3,"&amp;L5&amp;"4,"&amp;M5&amp;"5,"&amp;N5)</f>
         <v>1,3;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f>RkRaking!B5</f>
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>187</v>
-      </c>
       <c r="J5" t="s">
         <v>187</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" t="s">
         <v>186</v>
@@ -3208,13 +3214,16 @@
       <c r="M5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>189</v>
@@ -3222,22 +3231,22 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="str">
-        <f>CONCATENATE("1,"&amp;I6&amp;"2,"&amp;J6&amp;"3,"&amp;K6&amp;"4,"&amp;L6&amp;"5,"&amp;M6)</f>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6" t="str">
+        <f>CONCATENATE("1,"&amp;J6&amp;"2,"&amp;K6&amp;"3,"&amp;L6&amp;"4,"&amp;M6&amp;"5,"&amp;N6)</f>
         <v>1,2;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="I6" s="1" t="str">
         <f>RkRaking!B6</f>
         <v>4-10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>190</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>187</v>
-      </c>
-      <c r="K6" t="s">
-        <v>186</v>
       </c>
       <c r="L6" t="s">
         <v>186</v>
@@ -3245,13 +3254,16 @@
       <c r="M6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>189</v>
@@ -3259,22 +3271,22 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" ref="G7:G13" si="0">CONCATENATE("1,"&amp;I7&amp;"2,"&amp;J7&amp;"3,"&amp;K7&amp;"4,"&amp;L7&amp;"5,"&amp;M7)</f>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ref="H7:H13" si="0">CONCATENATE("1,"&amp;J7&amp;"2,"&amp;K7&amp;"3,"&amp;L7&amp;"4,"&amp;M7&amp;"5,"&amp;N7)</f>
         <v>1,2;2,3;3,5;4,5;5,5;</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="I7" s="1" t="str">
         <f>RkRaking!B7</f>
         <v>11-20</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>190</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>187</v>
-      </c>
-      <c r="K7" t="s">
-        <v>186</v>
       </c>
       <c r="L7" t="s">
         <v>186</v>
@@ -3282,13 +3294,16 @@
       <c r="M7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>191</v>
@@ -3296,22 +3311,22 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>1,2;2,2;3,5;4,5;5,5;</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="I8" s="1" t="str">
         <f>RkRaking!B8</f>
         <v>21-30</v>
       </c>
-      <c r="I8" t="s">
-        <v>190</v>
-      </c>
       <c r="J8" t="s">
         <v>190</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
         <v>186</v>
@@ -3319,13 +3334,16 @@
       <c r="M8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>350</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>192</v>
@@ -3333,22 +3351,22 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
+        <v>350</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>1,1;2,2;3,5;4,5;5,5;</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="I9" s="1" t="str">
         <f>RkRaking!B9</f>
         <v>31-50</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>193</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>190</v>
-      </c>
-      <c r="K9" t="s">
-        <v>186</v>
       </c>
       <c r="L9" t="s">
         <v>186</v>
@@ -3356,13 +3374,16 @@
       <c r="M9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>194</v>
@@ -3370,36 +3391,39 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>1,1;2,2;3,4;4,5;5,5;</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="I10" s="1" t="str">
         <f>RkRaking!B10</f>
         <v>51-100</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>193</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>190</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>195</v>
-      </c>
-      <c r="L10" t="s">
-        <v>186</v>
       </c>
       <c r="M10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>196</v>
@@ -3407,36 +3431,39 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>1,0;2,1;3,3;4,5;5,5;</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="I11" s="1" t="str">
         <f>RkRaking!B11</f>
         <v>101-500</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>197</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>193</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>187</v>
-      </c>
-      <c r="L11" t="s">
-        <v>186</v>
       </c>
       <c r="M11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>198</v>
@@ -3444,36 +3471,39 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>1,0;2,0;3,3;4,5;5,5;</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="I12" s="1" t="str">
         <f>RkRaking!B12</f>
         <v>501-1000</v>
       </c>
-      <c r="I12" t="s">
-        <v>197</v>
-      </c>
       <c r="J12" t="s">
         <v>197</v>
       </c>
       <c r="K12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" t="s">
         <v>187</v>
-      </c>
-      <c r="L12" t="s">
-        <v>186</v>
       </c>
       <c r="M12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>199</v>
@@ -3481,17 +3511,17 @@
       <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>1,0;2,0;3,0;4,5;5,5;</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="I13" s="1" t="str">
         <f>RkRaking!B13</f>
         <v>1001-9999</v>
       </c>
-      <c r="I13" t="s">
-        <v>197</v>
-      </c>
       <c r="J13" t="s">
         <v>197</v>
       </c>
@@ -3499,9 +3529,12 @@
         <v>197</v>
       </c>
       <c r="L13" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" t="s">
         <v>186</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>186</v>
       </c>
     </row>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
   <si>
     <t>id</t>
   </si>
@@ -654,49 +654,22 @@
     <t>chest</t>
   </si>
   <si>
-    <t>1,5;2,3;3,5;4,5;5,5;</t>
-  </si>
-  <si>
     <t>5;</t>
   </si>
   <si>
     <t>3;</t>
   </si>
   <si>
-    <t>1,3;2,3;3,5;4,5;5,5;</t>
-  </si>
-  <si>
-    <t>1,2;2,3;3,5;4,5;5,5;</t>
-  </si>
-  <si>
     <t>2;</t>
   </si>
   <si>
-    <t>1,2;2,2;3,5;4,5;5,5;</t>
-  </si>
-  <si>
-    <t>1,1;2,2;3,5;4,5;5,5;</t>
-  </si>
-  <si>
     <t>1;</t>
   </si>
   <si>
-    <t>1,1;2,2;3,4;4,5;5,5;</t>
-  </si>
-  <si>
     <t>4;</t>
   </si>
   <si>
-    <t>2,1;3,3;4,5;5,5;</t>
-  </si>
-  <si>
     <t>0;</t>
-  </si>
-  <si>
-    <t>3,3;4,5;5,5;</t>
-  </si>
-  <si>
-    <t>4,5;5,5;</t>
   </si>
   <si>
     <t>Rare</t>
@@ -726,9 +699,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -753,21 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,16 +740,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,17 +755,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,18 +810,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,14 +841,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,121 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +954,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1050,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,25 +1077,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,27 +1107,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1200,16 +1153,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,133 +1191,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3050,7 +3023,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E3" sqref="E3:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3105,9 +3078,6 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>185</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -3123,19 +3093,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
         <v>186</v>
       </c>
-      <c r="K3" t="s">
-        <v>187</v>
-      </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3145,9 +3115,6 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>188</v>
-      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -3163,19 +3130,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3185,9 +3152,6 @@
       <c r="C5">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>188</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -3203,19 +3167,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3225,9 +3189,6 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>189</v>
-      </c>
       <c r="F6">
         <v>2</v>
       </c>
@@ -3243,19 +3204,19 @@
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3265,9 +3226,6 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
-        <v>189</v>
-      </c>
       <c r="F7">
         <v>3</v>
       </c>
@@ -3283,19 +3241,19 @@
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3305,9 +3263,6 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>191</v>
-      </c>
       <c r="F8">
         <v>3</v>
       </c>
@@ -3323,19 +3278,19 @@
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3345,9 +3300,6 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>192</v>
-      </c>
       <c r="F9">
         <v>4</v>
       </c>
@@ -3363,19 +3315,19 @@
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3385,9 +3337,6 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>194</v>
-      </c>
       <c r="F10">
         <v>4</v>
       </c>
@@ -3403,19 +3352,19 @@
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3425,9 +3374,6 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>196</v>
-      </c>
       <c r="F11">
         <v>5</v>
       </c>
@@ -3443,19 +3389,19 @@
         <v>101-500</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3465,9 +3411,6 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
       <c r="F12">
         <v>5</v>
       </c>
@@ -3483,19 +3426,19 @@
         <v>501-1000</v>
       </c>
       <c r="J12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3505,9 +3448,6 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>199</v>
-      </c>
       <c r="F13">
         <v>5</v>
       </c>
@@ -3523,19 +3463,19 @@
         <v>1001-9999</v>
       </c>
       <c r="J13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3560,16 +3500,16 @@
         <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3577,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="207">
   <si>
     <t>id</t>
   </si>
@@ -651,7 +651,10 @@
     <t>单位，数量；</t>
   </si>
   <si>
-    <t>chest</t>
+    <t>chestIcon</t>
+  </si>
+  <si>
+    <t>1,5;2,3;3,5;4,5;5,5;</t>
   </si>
   <si>
     <t>5;</t>
@@ -660,16 +663,40 @@
     <t>3;</t>
   </si>
   <si>
+    <t>1,3;2,3;3,5;4,5;5,5;</t>
+  </si>
+  <si>
+    <t>1,2;2,3;3,5;4,5;5,5;</t>
+  </si>
+  <si>
     <t>2;</t>
   </si>
   <si>
+    <t>1,2;2,2;3,5;4,5;5,5;</t>
+  </si>
+  <si>
+    <t>1,1;2,2;3,5;4,5;5,5;</t>
+  </si>
+  <si>
     <t>1;</t>
   </si>
   <si>
+    <t>1,1;2,2;3,4;4,5;5,5;</t>
+  </si>
+  <si>
     <t>4;</t>
   </si>
   <si>
+    <t>2,1;3,3;4,5;5,5;</t>
+  </si>
+  <si>
     <t>0;</t>
+  </si>
+  <si>
+    <t>3,3;4,5;5,5;</t>
+  </si>
+  <si>
+    <t>4,5;5,5;</t>
   </si>
   <si>
     <t>Rare</t>
@@ -698,9 +725,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -740,16 +767,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,19 +789,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,6 +836,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -818,7 +852,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,14 +868,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,7 +876,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,25 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,19 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,121 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,6 +967,132 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1073,21 +1100,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1121,6 +1133,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1135,21 +1162,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,16 +1185,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,133 +1218,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3023,7 +3050,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3076,7 +3103,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3093,19 +3123,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" t="s">
         <v>186</v>
       </c>
-      <c r="L3" t="s">
-        <v>185</v>
-      </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3113,7 +3143,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>800</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3130,19 +3163,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" t="s">
         <v>186</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>186</v>
       </c>
-      <c r="L4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" t="s">
-        <v>185</v>
-      </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3150,7 +3183,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>800</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3167,19 +3203,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" t="s">
         <v>186</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>186</v>
       </c>
-      <c r="L5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M5" t="s">
-        <v>185</v>
-      </c>
       <c r="N5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3187,7 +3223,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>600</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3204,19 +3243,19 @@
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" t="s">
         <v>187</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>186</v>
       </c>
-      <c r="L6" t="s">
-        <v>185</v>
-      </c>
       <c r="M6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3224,7 +3263,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>189</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3241,19 +3283,19 @@
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" t="s">
         <v>187</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>186</v>
       </c>
-      <c r="L7" t="s">
-        <v>185</v>
-      </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3261,7 +3303,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>191</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3278,19 +3323,19 @@
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3298,7 +3343,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>350</v>
+      </c>
+      <c r="E9" t="s">
+        <v>192</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3315,19 +3363,19 @@
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3335,7 +3383,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -3352,19 +3403,19 @@
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3372,7 +3423,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>250</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3389,19 +3443,19 @@
         <v>101-500</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
         <v>186</v>
       </c>
-      <c r="M11" t="s">
-        <v>185</v>
-      </c>
       <c r="N11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3409,7 +3463,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>198</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3426,19 +3483,19 @@
         <v>501-1000</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" t="s">
         <v>186</v>
       </c>
-      <c r="M12" t="s">
-        <v>185</v>
-      </c>
       <c r="N12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3446,7 +3503,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>199</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3463,19 +3523,19 @@
         <v>1001-9999</v>
       </c>
       <c r="J13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L13" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3500,16 +3560,16 @@
         <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3517,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -759,22 +759,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -812,6 +796,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -824,6 +823,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,6 +858,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -860,15 +875,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,19 +889,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -909,13 +909,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +939,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,61 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,13 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,43 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,13 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,21 +1104,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1129,6 +1114,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,13 +1171,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,7 +1209,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,133 +1218,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1696,8 +1696,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1791,7 +1791,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1805,7 +1808,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1819,7 +1825,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -3049,7 +3058,7 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -725,9 +725,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -760,13 +760,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -775,6 +768,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,38 +828,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -843,6 +845,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -850,17 +860,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,27 +890,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -921,37 +921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,13 +945,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,19 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,13 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,67 +1077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,17 +1114,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,18 +1144,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,6 +1168,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1200,16 +1191,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,133 +1218,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1696,7 +1696,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
@@ -1854,8 +1854,8 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="$A17:$XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>43</v>
@@ -1993,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>48</v>
@@ -2028,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>51</v>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>54</v>
@@ -2098,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>58</v>
@@ -2133,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>62</v>
@@ -2168,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>64</v>
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>70</v>
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>76</v>
@@ -2291,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>82</v>
@@ -2332,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>87</v>
@@ -2373,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>93</v>
@@ -2414,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>97</v>
@@ -2455,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>103</v>
@@ -2496,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>109</v>
@@ -2537,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>114</v>
@@ -2578,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>120</v>
@@ -2619,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>125</v>
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>131</v>
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>137</v>
@@ -2742,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>143</v>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>149</v>
@@ -2824,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>155</v>
@@ -2865,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="H26" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>161</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>荥阳</t>
-  </si>
-  <si>
-    <t>0,3,0,1;1,3,0,1;7,0,433,1;</t>
   </si>
   <si>
     <t>7,0,433,1;</t>
@@ -725,9 +722,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -745,8 +742,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,7 +773,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,25 +801,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,9 +816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,6 +826,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,16 +847,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,37 +879,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,13 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,13 +930,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,73 +972,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,13 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,25 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,13 +1050,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,17 +1100,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,11 +1124,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1154,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1168,15 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1191,160 +1197,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1855,7 +1852,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H26"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1999,10 +1996,10 @@
         <v>48</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2031,10 +2028,10 @@
         <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>14</v>
@@ -2048,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2066,13 +2063,13 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2083,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -2101,13 +2098,13 @@
         <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2118,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -2136,10 +2133,10 @@
         <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>14</v>
@@ -2153,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2171,19 +2168,19 @@
         <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2194,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2212,19 +2209,19 @@
         <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2235,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -2253,19 +2250,19 @@
         <v>20</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2276,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4">
         <v>-1</v>
@@ -2294,19 +2291,19 @@
         <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2317,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2335,19 +2332,19 @@
         <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2358,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -2376,13 +2373,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>45</v>
@@ -2399,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2417,19 +2414,19 @@
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2440,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -2458,19 +2455,19 @@
         <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2481,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
@@ -2499,19 +2496,19 @@
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2522,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2540,19 +2537,19 @@
         <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2563,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2581,19 +2578,19 @@
         <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="M19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2604,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2622,19 +2619,19 @@
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2645,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
@@ -2663,19 +2660,19 @@
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2686,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2704,19 +2701,19 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2727,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2745,19 +2742,19 @@
         <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2768,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -2786,19 +2783,19 @@
         <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2809,7 +2806,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2827,19 +2824,19 @@
         <v>20</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2850,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="4">
         <v>-1</v>
@@ -2868,19 +2865,19 @@
         <v>20</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2906,13 +2903,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2920,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2964,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2975,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2986,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2997,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3008,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3019,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3030,7 +3027,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3041,7 +3038,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -3072,19 +3069,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3092,19 +3089,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
         <v>180</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>181</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>182</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3115,7 +3112,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3132,19 +3129,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
         <v>186</v>
       </c>
-      <c r="K3" t="s">
-        <v>187</v>
-      </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3155,7 +3152,7 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3172,19 +3169,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3195,7 +3192,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3212,19 +3209,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3235,7 +3232,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3252,19 +3249,19 @@
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3275,7 +3272,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3292,19 +3289,19 @@
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3315,7 +3312,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3332,19 +3329,19 @@
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3355,7 +3352,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3372,19 +3369,19 @@
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3395,7 +3392,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -3412,19 +3409,19 @@
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3435,7 +3432,7 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3452,19 +3449,19 @@
         <v>101-500</v>
       </c>
       <c r="J11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3475,7 +3472,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3492,19 +3489,19 @@
         <v>501-1000</v>
       </c>
       <c r="J12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3515,7 +3512,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3532,19 +3529,19 @@
         <v>1001-9999</v>
       </c>
       <c r="J13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3566,19 +3563,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>201</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3586,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>205</v>
-      </c>
-      <c r="D2" t="s">
-        <v>206</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="184">
   <si>
     <t>id</t>
   </si>
@@ -249,18 +249,12 @@
     <t>华雄</t>
   </si>
   <si>
-    <t>0,0,1442,1;1,0,1442,1;2,0,1442,1;7,0,19,1;</t>
-  </si>
-  <si>
     <t>7,0,19,1;</t>
   </si>
   <si>
     <t>东郡</t>
   </si>
   <si>
-    <t>7,0,68,1;10,0,1520,1;11,0,1520,1;</t>
-  </si>
-  <si>
     <t>7,0,68,1;</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>徐州</t>
   </si>
   <si>
-    <t>0,3,0,1;1,3,0,1;7,0,69,1;</t>
-  </si>
-  <si>
     <t>7,0,69,1;</t>
   </si>
   <si>
@@ -282,15 +273,9 @@
     <t>濮阳</t>
   </si>
   <si>
-    <t>0,0,1262,1;1,0,1262,1;7,0,19,1;</t>
-  </si>
-  <si>
     <t>白马</t>
   </si>
   <si>
-    <t>7,0,23,1;8,0,1323,1;9,0,1323,1;</t>
-  </si>
-  <si>
     <t>7,0,23,1;</t>
   </si>
   <si>
@@ -306,9 +291,6 @@
     <t>延津</t>
   </si>
   <si>
-    <t>7,0,24,1;8,0,1317,1;9,0,1317,1;</t>
-  </si>
-  <si>
     <t>7,0,24,1;</t>
   </si>
   <si>
@@ -324,9 +306,6 @@
     <t>乌巢</t>
   </si>
   <si>
-    <t>0,0,1275,1;1,0,1275,1;7,0,186,1;</t>
-  </si>
-  <si>
     <t>7,0,186,1;</t>
   </si>
   <si>
@@ -342,9 +321,6 @@
     <t>官渡</t>
   </si>
   <si>
-    <t>0,0,1245,1;1,0,1245,1;7,0,22,1;</t>
-  </si>
-  <si>
     <t>7,0,22,1;</t>
   </si>
   <si>
@@ -357,9 +333,6 @@
     <t>神亭岭</t>
   </si>
   <si>
-    <t>0,0,1232,1;1,0,1232,1;7,0,31,1;</t>
-  </si>
-  <si>
     <t>7,0,31,1;</t>
   </si>
   <si>
@@ -375,9 +348,6 @@
     <t>曲阿</t>
   </si>
   <si>
-    <t>0,3,0,1;1,3,0,1;7,0,385,1;</t>
-  </si>
-  <si>
     <t>7,0,385,1;</t>
   </si>
   <si>
@@ -387,9 +357,6 @@
     <t>吴郡</t>
   </si>
   <si>
-    <t>0,0,1250,1;1,0,1250,1;7,0,665,1;</t>
-  </si>
-  <si>
     <t>7,0,665,1;</t>
   </si>
   <si>
@@ -405,9 +372,6 @@
     <t>固陵</t>
   </si>
   <si>
-    <t>0,0,1238,1;1,0,1238,1;7,0,96,1;</t>
-  </si>
-  <si>
     <t>7,0,96,1;</t>
   </si>
   <si>
@@ -423,9 +387,6 @@
     <t>会稽</t>
   </si>
   <si>
-    <t>0,0,1220,1;1,0,1220,1;7,0,291,1;</t>
-  </si>
-  <si>
     <t>7,0,291,1;</t>
   </si>
   <si>
@@ -438,9 +399,6 @@
     <t>邺城</t>
   </si>
   <si>
-    <t>0,0,1226,1;1,0,1226,1;7,0,178,1;</t>
-  </si>
-  <si>
     <t>7,0,178,1;</t>
   </si>
   <si>
@@ -456,9 +414,6 @@
     <t>南皮</t>
   </si>
   <si>
-    <t>0,0,1244,1;1,0,1244,1;7,0,459,1;</t>
-  </si>
-  <si>
     <t>7,0,459,1;</t>
   </si>
   <si>
@@ -471,9 +426,6 @@
     <t>幽州</t>
   </si>
   <si>
-    <t>7,0,182,1;8,0,1310,1;9,0,1310,1;</t>
-  </si>
-  <si>
     <t>7,0,182,1;</t>
   </si>
   <si>
@@ -489,9 +441,6 @@
     <t>白狼山</t>
   </si>
   <si>
-    <t>7,0,831,1;8,0,1418,1;9,0,1418,1;</t>
-  </si>
-  <si>
     <t>7,0,831,1;</t>
   </si>
   <si>
@@ -507,9 +456,6 @@
     <t>长坂坡</t>
   </si>
   <si>
-    <t>7,0,10,1;8,0,1400,1;9,0,1400,1;</t>
-  </si>
-  <si>
     <t>7,0,10,1;</t>
   </si>
   <si>
@@ -525,9 +471,6 @@
     <t>荆州</t>
   </si>
   <si>
-    <t>7,0,51,1;8,0,1466,1;9,0,1466,1;</t>
-  </si>
-  <si>
     <t>7,0,51,1;</t>
   </si>
   <si>
@@ -543,9 +486,6 @@
     <t>江陵</t>
   </si>
   <si>
-    <t>7,0,48,1;8,0,1412,1;9,0,1412,1;</t>
-  </si>
-  <si>
     <t>7,0,48,1;</t>
   </si>
   <si>
@@ -561,9 +501,6 @@
     <t>江夏</t>
   </si>
   <si>
-    <t>7,0,49,1;8,0,1460,1;9,0,1460,1;</t>
-  </si>
-  <si>
     <t>7,0,49,1;</t>
   </si>
   <si>
@@ -577,9 +514,6 @@
   </si>
   <si>
     <t>赤壁</t>
-  </si>
-  <si>
-    <t>7,0,39,1;8,0,1418,1;9,0,1418,1;</t>
   </si>
   <si>
     <t>7,0,39,1;</t>
@@ -722,8 +656,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -742,8 +676,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -752,6 +708,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,14 +730,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,17 +743,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,39 +759,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,11 +781,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,9 +797,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,13 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,79 +864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +894,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,7 +978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,19 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,58 +1037,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,6 +1067,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1203,10 +1137,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,133 +1149,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1852,7 +1786,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H4" sqref="H4:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1949,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>43</v>
@@ -1990,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>48</v>
@@ -2025,13 +1959,13 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>14</v>
@@ -2045,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2060,16 +1994,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2080,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -2095,16 +2029,16 @@
         <v>5</v>
       </c>
       <c r="H7" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2115,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -2130,13 +2064,13 @@
         <v>7</v>
       </c>
       <c r="H8" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>14</v>
@@ -2150,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2165,22 +2099,22 @@
         <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2191,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2206,22 +2140,22 @@
         <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2232,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -2247,22 +2181,22 @@
         <v>5</v>
       </c>
       <c r="H11" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2273,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4">
         <v>-1</v>
@@ -2288,22 +2222,22 @@
         <v>7</v>
       </c>
       <c r="H12" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2314,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2329,22 +2263,22 @@
         <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2355,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -2370,16 +2304,16 @@
         <v>3</v>
       </c>
       <c r="H14" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>45</v>
@@ -2396,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2411,22 +2345,22 @@
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2437,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -2452,22 +2386,22 @@
         <v>5</v>
       </c>
       <c r="H16" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2478,7 +2412,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
@@ -2493,22 +2427,22 @@
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2519,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2534,22 +2468,22 @@
         <v>3</v>
       </c>
       <c r="H18" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2560,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2575,22 +2509,22 @@
         <v>5</v>
       </c>
       <c r="H19" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2601,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2616,22 +2550,22 @@
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2642,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
@@ -2657,22 +2591,22 @@
         <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2683,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2698,22 +2632,22 @@
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2724,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2739,22 +2673,22 @@
         <v>5</v>
       </c>
       <c r="H23" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2765,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -2780,22 +2714,22 @@
         <v>5</v>
       </c>
       <c r="H24" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2806,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2821,22 +2755,22 @@
         <v>5</v>
       </c>
       <c r="H25" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2847,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D26" s="4">
         <v>-1</v>
@@ -2862,22 +2796,22 @@
         <v>7</v>
       </c>
       <c r="H26" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2903,13 +2837,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2917,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2961,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2972,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2983,7 +2917,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2994,7 +2928,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3005,7 +2939,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3016,7 +2950,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3027,7 +2961,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3038,7 +2972,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -3069,19 +3003,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3089,19 +3023,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3112,7 +3046,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3129,19 +3063,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3152,7 +3086,7 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3169,19 +3103,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3192,7 +3126,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3209,19 +3143,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3232,7 +3166,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3249,19 +3183,19 @@
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M6" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N6" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3272,7 +3206,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3289,19 +3223,19 @@
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="L7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3312,7 +3246,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3329,19 +3263,19 @@
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3352,7 +3286,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3369,19 +3303,19 @@
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M9" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N9" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3392,7 +3326,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -3409,19 +3343,19 @@
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N10" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3432,7 +3366,7 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3449,19 +3383,19 @@
         <v>101-500</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="L11" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="M11" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N11" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3472,7 +3406,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3489,19 +3423,19 @@
         <v>501-1000</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K12" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3512,7 +3446,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3529,19 +3463,19 @@
         <v>1001-9999</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="L13" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3563,19 +3497,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3583,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -656,9 +656,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -677,7 +677,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,62 +744,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,15 +758,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,11 +774,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,8 +790,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,9 +813,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,7 +840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,13 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,37 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,13 +918,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,55 +1008,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,24 +1031,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1082,15 +1064,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1108,11 +1081,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,16 +1111,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,133 +1149,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1627,8 +1627,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1722,10 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1739,10 +1736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
+    <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1756,10 +1750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
+    <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1785,7 +1776,7 @@
   <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H26"/>
     </sheetView>
   </sheetViews>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -228,295 +228,142 @@
     <t>汜水关</t>
   </si>
   <si>
-    <t>7,0,173,1;</t>
-  </si>
-  <si>
-    <t>徐荣</t>
-  </si>
-  <si>
-    <t>,3,0,1;</t>
-  </si>
-  <si>
-    <t>拒马</t>
+    <t>5,0,1219,1;6,0,1219,1;</t>
   </si>
   <si>
     <t>荥阳</t>
   </si>
   <si>
-    <t>7,0,433,1;</t>
-  </si>
-  <si>
-    <t>华雄</t>
-  </si>
-  <si>
-    <t>7,0,19,1;</t>
+    <t>5,0,1225,1;6,0,1225,1;</t>
+  </si>
+  <si>
+    <t>5,0,1231,1;6,0,1231,1;</t>
   </si>
   <si>
     <t>东郡</t>
   </si>
   <si>
-    <t>7,0,68,1;</t>
-  </si>
-  <si>
-    <t>高顺</t>
+    <t>5,0,1237,1;6,0,1237,1;</t>
   </si>
   <si>
     <t>徐州</t>
   </si>
   <si>
-    <t>7,0,69,1;</t>
-  </si>
-  <si>
-    <t>陈宫</t>
+    <t>5,0,1243,1;6,0,1243,1;</t>
   </si>
   <si>
     <t>濮阳</t>
   </si>
   <si>
+    <t>5,0,1249,1;6,0,1249,1;</t>
+  </si>
+  <si>
     <t>白马</t>
   </si>
   <si>
-    <t>7,0,23,1;</t>
-  </si>
-  <si>
-    <t>颜良</t>
-  </si>
-  <si>
-    <t>,0,1323,1;</t>
-  </si>
-  <si>
-    <t>大刀</t>
+    <t>5,0,1261,1;6,0,1261,1;</t>
   </si>
   <si>
     <t>延津</t>
   </si>
   <si>
-    <t>7,0,24,1;</t>
-  </si>
-  <si>
-    <t>文丑</t>
-  </si>
-  <si>
-    <t>,0,1317,1;</t>
-  </si>
-  <si>
-    <t>大戟</t>
+    <t>5,0,1267,1;6,0,1267,1;</t>
   </si>
   <si>
     <t>乌巢</t>
   </si>
   <si>
-    <t>7,0,186,1;</t>
-  </si>
-  <si>
-    <t>淳于琼</t>
-  </si>
-  <si>
-    <t>,0,1275,1;</t>
-  </si>
-  <si>
-    <t>死士</t>
+    <t>5,0,1273,1;6,0,1273,1;</t>
   </si>
   <si>
     <t>官渡</t>
   </si>
   <si>
-    <t>7,0,22,1;</t>
-  </si>
-  <si>
-    <t>,0,1245,1;</t>
-  </si>
-  <si>
-    <t>虎卫</t>
+    <t>5,0,1297,1;6,0,1297,1;</t>
   </si>
   <si>
     <t>神亭岭</t>
   </si>
   <si>
-    <t>7,0,31,1;</t>
-  </si>
-  <si>
-    <t>太史慈</t>
-  </si>
-  <si>
-    <t>,0,1232,1;</t>
-  </si>
-  <si>
-    <t>铁卫</t>
+    <t>5,0,1309,1;6,0,1309,1;</t>
   </si>
   <si>
     <t>曲阿</t>
   </si>
   <si>
-    <t>7,0,385,1;</t>
-  </si>
-  <si>
-    <t>刘繇</t>
+    <t>5,0,1315,1;6,0,1315,1;</t>
   </si>
   <si>
     <t>吴郡</t>
   </si>
   <si>
-    <t>7,0,665,1;</t>
-  </si>
-  <si>
-    <t>严白虎</t>
-  </si>
-  <si>
-    <t>,0,1250,1;</t>
-  </si>
-  <si>
-    <t>刺盾</t>
+    <t>5,0,1321,1;6,0,1321,1;</t>
   </si>
   <si>
     <t>固陵</t>
   </si>
   <si>
-    <t>7,0,96,1;</t>
-  </si>
-  <si>
-    <t>虞翻</t>
-  </si>
-  <si>
-    <t>,0,1238,1;</t>
-  </si>
-  <si>
-    <t>飞甲</t>
+    <t>5,0,1327,1;6,0,1327,1;</t>
   </si>
   <si>
     <t>会稽</t>
   </si>
   <si>
-    <t>7,0,291,1;</t>
-  </si>
-  <si>
-    <t>,0,1220,1;</t>
-  </si>
-  <si>
-    <t>近战</t>
+    <t>5,0,1345,1;6,0,1345,1;</t>
   </si>
   <si>
     <t>邺城</t>
   </si>
   <si>
-    <t>7,0,178,1;</t>
-  </si>
-  <si>
-    <t>审配</t>
-  </si>
-  <si>
-    <t>,0,1226,1;</t>
-  </si>
-  <si>
-    <t>大盾</t>
+    <t>5,0,1363,1;6,0,1363,1;</t>
   </si>
   <si>
     <t>南皮</t>
   </si>
   <si>
-    <t>7,0,459,1;</t>
-  </si>
-  <si>
-    <t>袁尚</t>
-  </si>
-  <si>
-    <t>,0,1244,1;</t>
+    <t>5,0,1375,1;6,0,1375,1;</t>
   </si>
   <si>
     <t>幽州</t>
   </si>
   <si>
-    <t>7,0,182,1;</t>
-  </si>
-  <si>
-    <t>袁谭</t>
-  </si>
-  <si>
-    <t>,0,1310,1;</t>
-  </si>
-  <si>
-    <t>长枪</t>
+    <t>5,0,1381,1;6,0,1381,1;</t>
   </si>
   <si>
     <t>白狼山</t>
   </si>
   <si>
-    <t>7,0,831,1;</t>
-  </si>
-  <si>
-    <t>蹋顿</t>
-  </si>
-  <si>
-    <t>,0,1418,1;</t>
-  </si>
-  <si>
-    <t>骠骑</t>
+    <t>5,0,1387,1;6,0,1387,1;</t>
   </si>
   <si>
     <t>长坂坡</t>
   </si>
   <si>
-    <t>7,0,10,1;</t>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>,0,1400,1;</t>
-  </si>
-  <si>
-    <t>飞骑</t>
+    <t>5,0,1399,1;6,0,1399,1;</t>
   </si>
   <si>
     <t>荆州</t>
   </si>
   <si>
-    <t>7,0,51,1;</t>
-  </si>
-  <si>
-    <t>徐晃</t>
-  </si>
-  <si>
-    <t>,0,1466,1;</t>
-  </si>
-  <si>
-    <t>斧骑</t>
+    <t>5,0,1405,1;6,0,1405,1;</t>
   </si>
   <si>
     <t>江陵</t>
   </si>
   <si>
-    <t>7,0,48,1;</t>
-  </si>
-  <si>
-    <t>曹仁</t>
-  </si>
-  <si>
-    <t>,0,1412,1;</t>
-  </si>
-  <si>
-    <t>虎豹骑</t>
+    <t>5,0,1411,1;6,0,1411,1;</t>
   </si>
   <si>
     <t>江夏</t>
   </si>
   <si>
-    <t>7,0,49,1;</t>
-  </si>
-  <si>
-    <t>文聘</t>
-  </si>
-  <si>
-    <t>,0,1460,1;</t>
-  </si>
-  <si>
-    <t>枪骑</t>
+    <t>5,0,1417,1;6,0,1417,1;</t>
   </si>
   <si>
     <t>赤壁</t>
   </si>
   <si>
-    <t>7,0,39,1;</t>
+    <t>5,0,1423,1;6,0,1423,1;</t>
   </si>
   <si>
     <t>Id</t>
@@ -656,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -684,7 +531,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,14 +554,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -721,7 +576,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,29 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -775,16 +614,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,10 +636,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,7 +687,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,13 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,31 +765,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,19 +801,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,91 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,6 +878,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1064,35 +935,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,8 +962,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,10 +984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,133 +996,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1627,7 +1474,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1774,10 +1621,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1789,8 +1636,7 @@
     <col min="5" max="6" width="10.4259259259259" style="4" customWidth="1"/>
     <col min="7" max="8" width="11.712962962963" style="4" customWidth="1"/>
     <col min="9" max="9" width="52.1111111111111" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.44444444444444" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.13888888888889" style="4"/>
+    <col min="10" max="16384" width="9.13888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1851,7 +1697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1879,28 +1725,16 @@
       <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -1918,16 +1752,10 @@
         <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1953,16 +1781,10 @@
         <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1970,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1988,16 +1810,10 @@
         <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2005,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -2023,16 +1839,10 @@
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2040,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -2058,16 +1868,10 @@
         <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2075,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2093,22 +1897,10 @@
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2116,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2134,22 +1926,10 @@
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2157,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -2175,22 +1955,10 @@
         <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2198,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4">
         <v>-1</v>
@@ -2216,22 +1984,10 @@
         <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2239,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2257,22 +2013,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2280,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -2298,22 +2042,10 @@
         <v>15</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2321,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2339,22 +2071,10 @@
         <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2362,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -2380,22 +2100,10 @@
         <v>15</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2403,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
@@ -2421,22 +2129,10 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2444,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2462,22 +2158,10 @@
         <v>15</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2485,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2503,22 +2187,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2526,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2544,22 +2216,10 @@
         <v>15</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2567,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
@@ -2585,22 +2245,10 @@
         <v>15</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2608,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2626,22 +2274,10 @@
         <v>15</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2649,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -2667,22 +2303,10 @@
         <v>15</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2690,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -2708,22 +2332,10 @@
         <v>15</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2731,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -2749,22 +2361,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2772,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4">
         <v>-1</v>
@@ -2790,19 +2390,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2828,13 +2416,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2842,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2886,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2897,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2908,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2919,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2930,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2941,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2952,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2963,7 +2551,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -2994,19 +2582,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3014,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3037,7 +2625,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3054,19 +2642,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N3" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3077,7 +2665,7 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3094,19 +2682,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="L4" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N4" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3117,7 +2705,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3134,19 +2722,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3157,7 +2745,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3174,19 +2762,19 @@
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3197,7 +2785,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3214,19 +2802,19 @@
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3237,7 +2825,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3254,19 +2842,19 @@
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3277,7 +2865,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3294,19 +2882,19 @@
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N9" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3317,7 +2905,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -3334,19 +2922,19 @@
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3357,7 +2945,7 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3374,19 +2962,19 @@
         <v>101-500</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3397,7 +2985,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3414,19 +3002,19 @@
         <v>501-1000</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3437,7 +3025,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3454,19 +3042,19 @@
         <v>1001-9999</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3488,19 +3076,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3508,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -228,142 +228,142 @@
     <t>汜水关</t>
   </si>
   <si>
-    <t>5,0,1219,1;6,0,1219,1;</t>
+    <t>7,0,1219,1;</t>
   </si>
   <si>
     <t>荥阳</t>
   </si>
   <si>
-    <t>5,0,1225,1;6,0,1225,1;</t>
-  </si>
-  <si>
-    <t>5,0,1231,1;6,0,1231,1;</t>
+    <t>7,0,1225,1;</t>
+  </si>
+  <si>
+    <t>7,0,1231,1;</t>
   </si>
   <si>
     <t>东郡</t>
   </si>
   <si>
-    <t>5,0,1237,1;6,0,1237,1;</t>
+    <t>7,0,1237,1;</t>
   </si>
   <si>
     <t>徐州</t>
   </si>
   <si>
-    <t>5,0,1243,1;6,0,1243,1;</t>
+    <t>7,0,1243,1;</t>
   </si>
   <si>
     <t>濮阳</t>
   </si>
   <si>
-    <t>5,0,1249,1;6,0,1249,1;</t>
+    <t>7,0,1249,1;</t>
   </si>
   <si>
     <t>白马</t>
   </si>
   <si>
-    <t>5,0,1261,1;6,0,1261,1;</t>
+    <t>7,0,1261,1;</t>
   </si>
   <si>
     <t>延津</t>
   </si>
   <si>
-    <t>5,0,1267,1;6,0,1267,1;</t>
+    <t>7,0,1267,1;</t>
   </si>
   <si>
     <t>乌巢</t>
   </si>
   <si>
-    <t>5,0,1273,1;6,0,1273,1;</t>
+    <t>7,0,1273,1;</t>
   </si>
   <si>
     <t>官渡</t>
   </si>
   <si>
-    <t>5,0,1297,1;6,0,1297,1;</t>
+    <t>7,0,1297,1;</t>
   </si>
   <si>
     <t>神亭岭</t>
   </si>
   <si>
-    <t>5,0,1309,1;6,0,1309,1;</t>
+    <t>7,0,1309,1;</t>
   </si>
   <si>
     <t>曲阿</t>
   </si>
   <si>
-    <t>5,0,1315,1;6,0,1315,1;</t>
+    <t>7,0,1315,1;</t>
   </si>
   <si>
     <t>吴郡</t>
   </si>
   <si>
-    <t>5,0,1321,1;6,0,1321,1;</t>
+    <t>7,0,1321,1;</t>
   </si>
   <si>
     <t>固陵</t>
   </si>
   <si>
-    <t>5,0,1327,1;6,0,1327,1;</t>
+    <t>7,0,1327,1;</t>
   </si>
   <si>
     <t>会稽</t>
   </si>
   <si>
-    <t>5,0,1345,1;6,0,1345,1;</t>
+    <t>7,0,1345,1;</t>
   </si>
   <si>
     <t>邺城</t>
   </si>
   <si>
-    <t>5,0,1363,1;6,0,1363,1;</t>
+    <t>7,0,1363,1;</t>
   </si>
   <si>
     <t>南皮</t>
   </si>
   <si>
-    <t>5,0,1375,1;6,0,1375,1;</t>
+    <t>7,0,1375,1;</t>
   </si>
   <si>
     <t>幽州</t>
   </si>
   <si>
-    <t>5,0,1381,1;6,0,1381,1;</t>
+    <t>7,0,1381,1;</t>
   </si>
   <si>
     <t>白狼山</t>
   </si>
   <si>
-    <t>5,0,1387,1;6,0,1387,1;</t>
+    <t>7,0,1387,1;</t>
   </si>
   <si>
     <t>长坂坡</t>
   </si>
   <si>
-    <t>5,0,1399,1;6,0,1399,1;</t>
+    <t>7,0,1399,1;</t>
   </si>
   <si>
     <t>荆州</t>
   </si>
   <si>
-    <t>5,0,1405,1;6,0,1405,1;</t>
+    <t>7,0,1405,1;</t>
   </si>
   <si>
     <t>江陵</t>
   </si>
   <si>
-    <t>5,0,1411,1;6,0,1411,1;</t>
+    <t>7,0,1411,1;</t>
   </si>
   <si>
     <t>江夏</t>
   </si>
   <si>
-    <t>5,0,1417,1;6,0,1417,1;</t>
+    <t>7,0,1417,1;</t>
   </si>
   <si>
     <t>赤壁</t>
   </si>
   <si>
-    <t>5,0,1423,1;6,0,1423,1;</t>
+    <t>7,0,1423,1;</t>
   </si>
   <si>
     <t>Id</t>
@@ -504,9 +504,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -523,6 +523,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -531,7 +571,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,40 +615,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,30 +638,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -628,33 +645,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,13 +687,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,13 +729,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,55 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,85 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,64 +881,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -963,18 +911,70 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,10 +984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,133 +996,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1569,7 +1569,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1583,7 +1586,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1603,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1633,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1720,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>43</v>
@@ -1749,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>45</v>
@@ -1778,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>46</v>
@@ -1807,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>48</v>
@@ -1836,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>50</v>
@@ -1865,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>52</v>
@@ -1894,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>54</v>
@@ -1923,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>56</v>
@@ -1952,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>58</v>
@@ -1981,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>60</v>
@@ -2010,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>62</v>
@@ -2039,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>64</v>
@@ -2068,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>66</v>
@@ -2097,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>68</v>
@@ -2126,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>70</v>
@@ -2155,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>72</v>
@@ -2184,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>74</v>
@@ -2213,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>76</v>
@@ -2242,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>78</v>
@@ -2271,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>80</v>
@@ -2300,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>82</v>
@@ -2329,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>84</v>
@@ -2358,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>86</v>
@@ -2387,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="H26" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>88</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -135,6 +135,24 @@
     <t>董卓</t>
   </si>
   <si>
+    <t>官渡之战</t>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>赤壁之战</t>
+  </si>
+  <si>
+    <t>19,20,21,22,23</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
     <t>濮阳之战</t>
   </si>
   <si>
@@ -144,15 +162,6 @@
     <t>吕布</t>
   </si>
   <si>
-    <t>官渡之战</t>
-  </si>
-  <si>
-    <t>6,7,8,9</t>
-  </si>
-  <si>
-    <t>袁绍</t>
-  </si>
-  <si>
     <t>平定江东</t>
   </si>
   <si>
@@ -169,15 +178,6 @@
   </si>
   <si>
     <t>单于</t>
-  </si>
-  <si>
-    <t>赤壁之战</t>
-  </si>
-  <si>
-    <t>19,20,21,22,23</t>
-  </si>
-  <si>
-    <t>曹操</t>
   </si>
   <si>
     <t>Index</t>
@@ -503,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -523,7 +523,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -531,16 +537,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -556,7 +591,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -564,37 +599,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,6 +607,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,17 +628,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,15 +643,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,13 +662,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,7 +687,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,43 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,31 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,91 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,26 +883,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,11 +914,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,8 +947,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,145 +984,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1474,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1569,10 +1569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1586,11 +1583,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1603,11 +1597,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1632,7 +1623,7 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -503,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -523,8 +523,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,36 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -582,24 +582,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,18 +597,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,9 +636,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,9 +651,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,103 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,37 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +717,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,11 +881,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,21 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -947,19 +938,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,16 +967,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,133 +996,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -126,7 +126,7 @@
     <t>虎牢关</t>
   </si>
   <si>
-    <t>0,1,2</t>
+    <t>0,</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11</t>
@@ -138,7 +138,7 @@
     <t>官渡之战</t>
   </si>
   <si>
-    <t>6,7,8,9</t>
+    <t>6,7,8</t>
   </si>
   <si>
     <t>袁绍</t>
@@ -147,7 +147,7 @@
     <t>赤壁之战</t>
   </si>
   <si>
-    <t>19,20,21,22,23</t>
+    <t>19,20</t>
   </si>
   <si>
     <t>曹操</t>
@@ -225,21 +225,9 @@
     <t>棋子阵容</t>
   </si>
   <si>
-    <t>汜水关</t>
-  </si>
-  <si>
     <t>7,0,1219,1;</t>
   </si>
   <si>
-    <t>荥阳</t>
-  </si>
-  <si>
-    <t>7,0,1225,1;</t>
-  </si>
-  <si>
-    <t>7,0,1231,1;</t>
-  </si>
-  <si>
     <t>东郡</t>
   </si>
   <si>
@@ -264,12 +252,6 @@
     <t>7,0,1261,1;</t>
   </si>
   <si>
-    <t>延津</t>
-  </si>
-  <si>
-    <t>7,0,1267,1;</t>
-  </si>
-  <si>
     <t>乌巢</t>
   </si>
   <si>
@@ -336,34 +318,16 @@
     <t>7,0,1387,1;</t>
   </si>
   <si>
-    <t>长坂坡</t>
-  </si>
-  <si>
-    <t>7,0,1399,1;</t>
-  </si>
-  <si>
-    <t>荆州</t>
+    <t>赤壁</t>
+  </si>
+  <si>
+    <t>7,0,1423,1;</t>
+  </si>
+  <si>
+    <t>华容道</t>
   </si>
   <si>
     <t>7,0,1405,1;</t>
-  </si>
-  <si>
-    <t>江陵</t>
-  </si>
-  <si>
-    <t>7,0,1411,1;</t>
-  </si>
-  <si>
-    <t>江夏</t>
-  </si>
-  <si>
-    <t>7,0,1417,1;</t>
-  </si>
-  <si>
-    <t>赤壁</t>
-  </si>
-  <si>
-    <t>7,0,1423,1;</t>
   </si>
   <si>
     <t>Id</t>
@@ -503,9 +467,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -520,43 +484,6 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,23 +502,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,32 +531,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,9 +591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,11 +607,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,7 +651,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +765,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,145 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,16 +845,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -920,35 +884,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,6 +908,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -978,16 +933,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,133 +960,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1475,7 +1439,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1537,7 +1501,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -1554,7 +1518,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -1623,8 +1587,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1705,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1717,71 +1681,29 @@
         <v>10</v>
       </c>
       <c r="G3" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1792,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1810,7 +1732,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1821,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -1839,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1850,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -1868,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1879,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1891,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1908,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -1926,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1937,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1949,42 +1871,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
-        <v>7</v>
-      </c>
-      <c r="H12" s="4">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1995,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2013,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2024,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -2042,7 +1943,7 @@
         <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2053,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2071,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2082,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -2100,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2111,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
@@ -2129,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2140,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2158,7 +2059,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2169,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2187,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2198,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2216,7 +2117,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2227,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
@@ -2245,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2256,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2268,13 +2169,13 @@
         <v>10</v>
       </c>
       <c r="G22" s="5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2285,10 +2186,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -2297,101 +2198,44 @@
         <v>10</v>
       </c>
       <c r="G23" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="4">
         <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>10</v>
-      </c>
-      <c r="G24" s="5">
-        <v>5</v>
-      </c>
-      <c r="H24" s="4">
-        <v>20</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="C24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="4">
-        <v>4</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>10</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="C25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>10</v>
-      </c>
-      <c r="G26" s="5">
-        <v>7</v>
-      </c>
-      <c r="H26" s="4">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="C26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,13 +2260,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2430,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2474,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2485,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2496,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2507,7 +2351,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2518,7 +2362,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2529,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2540,7 +2384,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2551,7 +2395,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -2582,19 +2426,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2602,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2625,7 +2469,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2642,19 +2486,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2665,7 +2509,7 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2682,19 +2526,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2705,7 +2549,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2722,19 +2566,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2745,7 +2589,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2762,19 +2606,19 @@
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2785,7 +2629,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2802,19 +2646,19 @@
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2825,7 +2669,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2842,19 +2686,19 @@
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2865,7 +2709,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2882,19 +2726,19 @@
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2905,7 +2749,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -2922,19 +2766,19 @@
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2945,7 +2789,7 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2962,19 +2806,19 @@
         <v>101-500</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2985,7 +2829,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3002,19 +2846,19 @@
         <v>501-1000</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3025,7 +2869,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -3042,19 +2886,19 @@
         <v>1001-9999</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3076,19 +2920,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3096,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +180,15 @@
     <t>单于</t>
   </si>
   <si>
+    <t>决战汉中</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>定军山</t>
+  </si>
+  <si>
     <t>Index</t>
   </si>
   <si>
@@ -228,10 +237,13 @@
     <t>7,0,1219,1;</t>
   </si>
   <si>
+    <t>汉中</t>
+  </si>
+  <si>
+    <t>7,0,1237,1;</t>
+  </si>
+  <si>
     <t>东郡</t>
-  </si>
-  <si>
-    <t>7,0,1237,1;</t>
   </si>
   <si>
     <t>徐州</t>
@@ -467,13 +479,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -488,6 +508,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -495,29 +522,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +545,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -540,7 +568,46 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -556,22 +623,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,49 +645,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,7 +671,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +713,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +779,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,19 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,121 +839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,30 +862,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -884,11 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,10 +927,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -942,16 +942,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,140 +980,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1105,10 +1125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1436,13 +1459,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.13888888888889" style="4"/>
     <col min="2" max="2" width="12.8518518518519" style="4" customWidth="1"/>
@@ -1562,7 +1585,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1573,6 +1596,28 @@
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1587,8 +1632,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
@@ -1608,28 +1653,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1637,32 +1682,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -1687,15 +1732,36 @@
         <v>50</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1714,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1732,7 +1798,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1743,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -1761,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1772,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4">
         <v>-1</v>
@@ -1790,18 +1856,18 @@
         <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1819,18 +1885,18 @@
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -1848,18 +1914,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4">
         <v>-1</v>
@@ -1877,7 +1943,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1896,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1907,14 +1973,14 @@
       <c r="F13" s="4">
         <v>10</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>3</v>
       </c>
       <c r="H13" s="4">
         <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1925,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -1936,14 +2002,14 @@
       <c r="F14" s="4">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>3</v>
       </c>
       <c r="H14" s="4">
         <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1953,8 +2019,8 @@
       <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>59</v>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -1965,14 +2031,14 @@
       <c r="F15" s="4">
         <v>10</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>3</v>
       </c>
       <c r="H15" s="4">
         <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1982,8 +2048,8 @@
       <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
+      <c r="C16" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -1994,14 +2060,14 @@
       <c r="F16" s="4">
         <v>10</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>5</v>
       </c>
       <c r="H16" s="4">
         <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2011,8 +2077,8 @@
       <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>63</v>
+      <c r="C17" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="4">
         <v>-1</v>
@@ -2023,14 +2089,14 @@
       <c r="F17" s="4">
         <v>10</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>5</v>
       </c>
       <c r="H17" s="4">
         <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2040,8 +2106,8 @@
       <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>65</v>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2052,14 +2118,14 @@
       <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>3</v>
       </c>
       <c r="H18" s="4">
         <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2069,8 +2135,8 @@
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>67</v>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2081,14 +2147,14 @@
       <c r="F19" s="4">
         <v>10</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>5</v>
       </c>
       <c r="H19" s="4">
         <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2098,8 +2164,8 @@
       <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>69</v>
+      <c r="C20" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -2110,14 +2176,14 @@
       <c r="F20" s="4">
         <v>10</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <v>5</v>
       </c>
       <c r="H20" s="4">
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2127,8 +2193,8 @@
       <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>71</v>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="4">
         <v>-1</v>
@@ -2139,25 +2205,25 @@
       <c r="F21" s="4">
         <v>10</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <v>10</v>
       </c>
       <c r="H21" s="4">
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>73</v>
+      <c r="C22" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2168,25 +2234,25 @@
       <c r="F22" s="4">
         <v>10</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <v>18</v>
       </c>
       <c r="H22" s="4">
         <v>50</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>75</v>
+      <c r="C23" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D23" s="4">
         <v>-1</v>
@@ -2197,14 +2263,14 @@
       <c r="F23" s="4">
         <v>10</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <v>3</v>
       </c>
       <c r="H23" s="4">
         <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2214,8 +2280,8 @@
       <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
@@ -2224,8 +2290,8 @@
       <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
@@ -2234,8 +2300,8 @@
       <c r="B26" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2260,13 +2326,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2274,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2318,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2329,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2340,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2351,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2362,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2373,7 +2439,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2384,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2395,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -2426,19 +2492,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2446,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2469,7 +2535,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2486,19 +2552,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2509,7 +2575,7 @@
         <v>800</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2526,19 +2592,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2549,7 +2615,7 @@
         <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2566,19 +2632,19 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2589,7 +2655,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2606,19 +2672,19 @@
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s">
         <v>104</v>
       </c>
-      <c r="K6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" t="s">
-        <v>100</v>
-      </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2629,7 +2695,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2646,19 +2712,19 @@
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2669,7 +2735,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2686,19 +2752,19 @@
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>104</v>
       </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>100</v>
-      </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2709,7 +2775,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2726,19 +2792,19 @@
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2749,7 +2815,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -2766,19 +2832,19 @@
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="s">
         <v>104</v>
       </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="s">
-        <v>100</v>
-      </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2789,7 +2855,7 @@
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2806,19 +2872,19 @@
         <v>101-500</v>
       </c>
       <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="K11" t="s">
-        <v>107</v>
-      </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2829,7 +2895,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2846,19 +2912,19 @@
         <v>501-1000</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2869,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -2886,19 +2952,19 @@
         <v>1001-9999</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2920,19 +2986,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2940,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -408,7 +408,7 @@
     <t>chestIcon</t>
   </si>
   <si>
-    <t>1,5;2,3;3,5;4,5;5,5;</t>
+    <t>1,5;2,3;3,5;4,5;5,5;6,5;</t>
   </si>
   <si>
     <t>5;</t>
@@ -417,40 +417,40 @@
     <t>3;</t>
   </si>
   <si>
-    <t>1,3;2,3;3,5;4,5;5,5;</t>
-  </si>
-  <si>
-    <t>1,2;2,3;3,5;4,5;5,5;</t>
+    <t>1,3;2,3;3,5;4,5;5,5;6,4;</t>
+  </si>
+  <si>
+    <t>4;</t>
+  </si>
+  <si>
+    <t>1,2;2,3;3,5;4,5;5,5;6,3;</t>
   </si>
   <si>
     <t>2;</t>
   </si>
   <si>
-    <t>1,2;2,2;3,5;4,5;5,5;</t>
-  </si>
-  <si>
-    <t>1,1;2,2;3,5;4,5;5,5;</t>
+    <t>1,2;2,2;3,5;4,5;5,5;6,3;</t>
+  </si>
+  <si>
+    <t>1,1;2,2;3,5;4,5;5,5;6,3;</t>
   </si>
   <si>
     <t>1;</t>
   </si>
   <si>
-    <t>1,1;2,2;3,4;4,5;5,5;</t>
-  </si>
-  <si>
-    <t>4;</t>
-  </si>
-  <si>
-    <t>2,1;3,3;4,5;5,5;</t>
+    <t>1,1;2,2;3,4;4,5;5,5;6,3;</t>
+  </si>
+  <si>
+    <t>2,1;3,3;4,5;5,5;6,3;</t>
   </si>
   <si>
     <t>0;</t>
   </si>
   <si>
-    <t>3,3;4,5;5,5;</t>
-  </si>
-  <si>
-    <t>4,5;5,5;</t>
+    <t>3,3;4,5;5,5;6,3;</t>
+  </si>
+  <si>
+    <t>4,5;5,5;6,3;</t>
   </si>
   <si>
     <t>Rare</t>
@@ -480,9 +480,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -508,13 +508,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -535,9 +528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,14 +538,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,32 +559,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,6 +577,46 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,7 +671,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,85 +821,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,85 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,21 +881,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -906,21 +891,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,6 +909,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,133 +980,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1632,7 +1632,7 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2476,15 +2476,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
     <col min="6" max="7" width="10.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="24.8518518518519" customWidth="1"/>
     <col min="9" max="9" width="11.5555555555556" style="1" customWidth="1"/>
@@ -2527,7 +2527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2544,8 +2544,8 @@
         <v>1000</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE("1,"&amp;J3&amp;"2,"&amp;K3&amp;"3,"&amp;L3&amp;"4,"&amp;M3&amp;"5,"&amp;N3)</f>
-        <v>1,5;2,3;3,5;4,5;5,5;</v>
+        <f>CONCATENATE("1,",J3,"2,",K3,"3,",L3,"4,",M3,"5,",N3,"6,",O3)</f>
+        <v>1,5;2,3;3,5;4,5;5,5;6,5;</v>
       </c>
       <c r="I3" s="1">
         <f>RkRaking!B3</f>
@@ -2566,8 +2566,11 @@
       <c r="N3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2584,8 +2587,8 @@
         <v>800</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE("1,"&amp;J4&amp;"2,"&amp;K4&amp;"3,"&amp;L4&amp;"4,"&amp;M4&amp;"5,"&amp;N4)</f>
-        <v>1,3;2,3;3,5;4,5;5,5;</v>
+        <f t="shared" ref="H4:H13" si="0">CONCATENATE("1,",J4,"2,",K4,"3,",L4,"4,",M4,"5,",N4,"6,",O4)</f>
+        <v>1,3;2,3;3,5;4,5;5,5;6,4;</v>
       </c>
       <c r="I4" s="1">
         <f>RkRaking!B4</f>
@@ -2606,8 +2609,11 @@
       <c r="N4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2624,8 +2630,8 @@
         <v>800</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE("1,"&amp;J5&amp;"2,"&amp;K5&amp;"3,"&amp;L5&amp;"4,"&amp;M5&amp;"5,"&amp;N5)</f>
-        <v>1,3;2,3;3,5;4,5;5,5;</v>
+        <f t="shared" si="0"/>
+        <v>1,3;2,3;3,5;4,5;5,5;6,4;</v>
       </c>
       <c r="I5" s="1">
         <f>RkRaking!B5</f>
@@ -2646,8 +2652,11 @@
       <c r="N5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2664,15 +2673,15 @@
         <v>600</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE("1,"&amp;J6&amp;"2,"&amp;K6&amp;"3,"&amp;L6&amp;"4,"&amp;M6&amp;"5,"&amp;N6)</f>
-        <v>1,2;2,3;3,5;4,5;5,5;</v>
+        <f t="shared" si="0"/>
+        <v>1,2;2,3;3,5;4,5;5,5;6,3;</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>RkRaking!B6</f>
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s">
         <v>105</v>
@@ -2686,8 +2695,11 @@
       <c r="N6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2695,7 +2707,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2704,15 +2716,15 @@
         <v>500</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H13" si="0">CONCATENATE("1,"&amp;J7&amp;"2,"&amp;K7&amp;"3,"&amp;L7&amp;"4,"&amp;M7&amp;"5,"&amp;N7)</f>
-        <v>1,2;2,3;3,5;4,5;5,5;</v>
+        <f t="shared" si="0"/>
+        <v>1,2;2,3;3,5;4,5;5,5;6,3;</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>RkRaking!B7</f>
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
         <v>105</v>
@@ -2726,8 +2738,11 @@
       <c r="N7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2735,7 +2750,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2745,17 +2760,17 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>1,2;2,2;3,5;4,5;5,5;</v>
+        <v>1,2;2,2;3,5;4,5;5,5;6,3;</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>RkRaking!B8</f>
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -2766,8 +2781,11 @@
       <c r="N8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2775,7 +2793,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2785,17 +2803,17 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>1,1;2,2;3,5;4,5;5,5;</v>
+        <v>1,1;2,2;3,5;4,5;5,5;6,3;</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>RkRaking!B9</f>
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -2806,8 +2824,11 @@
       <c r="N9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2815,7 +2836,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -2825,20 +2846,20 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>1,1;2,2;3,4;4,5;5,5;</v>
+        <v>1,1;2,2;3,4;4,5;5,5;6,3;</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>RkRaking!B10</f>
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s">
         <v>104</v>
@@ -2846,8 +2867,11 @@
       <c r="N10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2865,7 +2889,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>1,0;2,1;3,3;4,5;5,5;</v>
+        <v>1,0;2,1;3,3;4,5;5,5;6,3;</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>RkRaking!B11</f>
@@ -2875,7 +2899,7 @@
         <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -2886,8 +2910,11 @@
       <c r="N11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2905,7 +2932,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>1,0;2,0;3,3;4,5;5,5;</v>
+        <v>1,0;2,0;3,3;4,5;5,5;6,3;</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>RkRaking!B12</f>
@@ -2926,8 +2953,11 @@
       <c r="N12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2945,7 +2975,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>1,0;2,0;3,0;4,5;5,5;</v>
+        <v>1,0;2,0;3,0;4,5;5,5;6,3;</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>RkRaking!B13</f>
@@ -2965,6 +2995,9 @@
       </c>
       <c r="N13" t="s">
         <v>104</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -2478,7 +2478,7 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -3009,13 +3009,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3133,6 +3133,23 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>-1</v>
       </c>
     </row>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -417,40 +417,40 @@
     <t>3;</t>
   </si>
   <si>
-    <t>1,3;2,3;3,5;4,5;5,5;6,4;</t>
+    <t>1,3;2,3;3,5;4,5;5,5;6,5;</t>
+  </si>
+  <si>
+    <t>1,2;2,3;3,5;4,5;5,5;6,5;</t>
+  </si>
+  <si>
+    <t>2;</t>
+  </si>
+  <si>
+    <t>1,2;2,2;3,5;4,5;5,5;6,5;</t>
+  </si>
+  <si>
+    <t>1,1;2,2;3,5;4,5;5,5;6,5;</t>
+  </si>
+  <si>
+    <t>1;</t>
+  </si>
+  <si>
+    <t>1,1;2,2;3,4;4,5;5,5;6,5;</t>
   </si>
   <si>
     <t>4;</t>
   </si>
   <si>
-    <t>1,2;2,3;3,5;4,5;5,5;6,3;</t>
-  </si>
-  <si>
-    <t>2;</t>
-  </si>
-  <si>
-    <t>1,2;2,2;3,5;4,5;5,5;6,3;</t>
-  </si>
-  <si>
-    <t>1,1;2,2;3,5;4,5;5,5;6,3;</t>
-  </si>
-  <si>
-    <t>1;</t>
-  </si>
-  <si>
-    <t>1,1;2,2;3,4;4,5;5,5;6,3;</t>
-  </si>
-  <si>
-    <t>2,1;3,3;4,5;5,5;6,3;</t>
+    <t>2,1;3,3;4,5;5,5;6,5;</t>
   </si>
   <si>
     <t>0;</t>
   </si>
   <si>
-    <t>3,3;4,5;5,5;6,3;</t>
-  </si>
-  <si>
-    <t>4,5;5,5;6,3;</t>
+    <t>3,3;4,5;5,5;6,5;</t>
+  </si>
+  <si>
+    <t>4,5;5,5;6,5;</t>
   </si>
   <si>
     <t>Rare</t>
@@ -2478,8 +2478,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H13" si="0">CONCATENATE("1,",J4,"2,",K4,"3,",L4,"4,",M4,"5,",N4,"6,",O4)</f>
-        <v>1,3;2,3;3,5;4,5;5,5;6,4;</v>
+        <v>1,3;2,3;3,5;4,5;5,5;6,5;</v>
       </c>
       <c r="I4" s="1">
         <f>RkRaking!B4</f>
@@ -2610,7 +2610,7 @@
         <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>1,3;2,3;3,5;4,5;5,5;6,4;</v>
+        <v>1,3;2,3;3,5;4,5;5,5;6,5;</v>
       </c>
       <c r="I5" s="1">
         <f>RkRaking!B5</f>
@@ -2653,7 +2653,7 @@
         <v>104</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2664,7 +2664,7 @@
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2674,14 +2674,14 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>1,2;2,3;3,5;4,5;5,5;6,3;</v>
+        <v>1,2;2,3;3,5;4,5;5,5;6,5;</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>RkRaking!B6</f>
         <v>4-10</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
         <v>105</v>
@@ -2696,7 +2696,7 @@
         <v>104</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2707,7 +2707,7 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2717,14 +2717,14 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>1,2;2,3;3,5;4,5;5,5;6,3;</v>
+        <v>1,2;2,3;3,5;4,5;5,5;6,5;</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>RkRaking!B7</f>
         <v>11-20</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
         <v>105</v>
@@ -2739,7 +2739,7 @@
         <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2750,7 +2750,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2760,17 +2760,17 @@
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>1,2;2,2;3,5;4,5;5,5;6,3;</v>
+        <v>1,2;2,2;3,5;4,5;5,5;6,5;</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>RkRaking!B8</f>
         <v>21-30</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
         <v>104</v>
@@ -2782,7 +2782,7 @@
         <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2793,7 +2793,7 @@
         <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2803,17 +2803,17 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>1,1;2,2;3,5;4,5;5,5;6,3;</v>
+        <v>1,1;2,2;3,5;4,5;5,5;6,5;</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>RkRaking!B9</f>
         <v>31-50</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
         <v>104</v>
@@ -2825,7 +2825,7 @@
         <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2836,7 +2836,7 @@
         <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -2846,20 +2846,20 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>1,1;2,2;3,4;4,5;5,5;6,3;</v>
+        <v>1,1;2,2;3,4;4,5;5,5;6,5;</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>RkRaking!B10</f>
         <v>51-100</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
         <v>104</v>
@@ -2868,7 +2868,7 @@
         <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>1,0;2,1;3,3;4,5;5,5;6,3;</v>
+        <v>1,0;2,1;3,3;4,5;5,5;6,5;</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>RkRaking!B11</f>
@@ -2899,7 +2899,7 @@
         <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
         <v>105</v>
@@ -2911,7 +2911,7 @@
         <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>1,0;2,0;3,3;4,5;5,5;6,3;</v>
+        <v>1,0;2,0;3,3;4,5;5,5;6,5;</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>RkRaking!B12</f>
@@ -2954,7 +2954,7 @@
         <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>1,0;2,0;3,0;4,5;5,5;6,3;</v>
+        <v>1,0;2,0;3,0;4,5;5,5;6,5;</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>RkRaking!B13</f>
@@ -2997,7 +2997,7 @@
         <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3011,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E\UnityProject\HeroScrollPj\Server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC41D8F-F05C-4E8C-AEDC-5E1FDAEC1DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -13,23 +19,35 @@
     <sheet name="RkReward" sheetId="4" r:id="rId4"/>
     <sheet name="RkCard" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -38,6 +56,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,13 +64,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -60,6 +80,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -69,13 +90,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -84,6 +106,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -477,14 +500,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,366 +514,61 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -866,31 +578,65 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,304 +644,114 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1453,28 +1009,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" style="4"/>
-    <col min="2" max="2" width="12.8518518518519" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.8888888888889" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.2222222222222" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.13888888888889" style="4"/>
+    <col min="1" max="1" width="9.1328125" style="4"/>
+    <col min="2" max="2" width="12.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -1522,7 +1078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1539,7 +1095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1556,7 +1112,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1129,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +1146,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1163,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1621,34 +1189,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.57407407407407" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.57407407407407" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5740740740741" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.8518518518519" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.4259259259259" style="4" customWidth="1"/>
-    <col min="7" max="8" width="11.712962962963" style="4" customWidth="1"/>
-    <col min="9" max="9" width="52.1111111111111" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.13888888888889" style="4"/>
+    <col min="1" max="1" width="4.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.3984375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="11.73046875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="52.1328125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1706,65 +1273,65 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="10">
         <v>-1</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10">
         <v>15</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <v>50</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="10">
         <v>-1</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10">
         <v>19</v>
       </c>
-      <c r="H4" s="4">
-        <v>50</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="10">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1772,181 +1339,181 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="13">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="14">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3">
+    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17">
         <v>5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="17">
         <v>20</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3">
+    <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="20">
         <v>-1</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>10</v>
+      </c>
+      <c r="G8" s="20">
         <v>7</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="20">
         <v>20</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
+    <row r="10" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>10</v>
+      </c>
+      <c r="G10" s="17">
         <v>3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="17">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5">
+    <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="20">
         <v>-1</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="20">
         <v>50</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1954,268 +1521,268 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10</v>
+      </c>
+      <c r="G13" s="24">
         <v>3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="14">
         <v>20</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3">
+    <row r="14" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>10</v>
+      </c>
+      <c r="G14" s="25">
         <v>3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="17">
         <v>20</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3">
+    <row r="15" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="17">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <v>10</v>
+      </c>
+      <c r="G15" s="25">
         <v>3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="17">
         <v>20</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3">
+    <row r="16" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="16">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="17">
         <v>4</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>10</v>
+      </c>
+      <c r="G16" s="25">
         <v>5</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="17">
         <v>20</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="19">
         <v>4</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="20">
         <v>-1</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="E17" s="20">
+        <v>1</v>
+      </c>
+      <c r="F17" s="20">
+        <v>10</v>
+      </c>
+      <c r="G17" s="26">
         <v>5</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="20">
         <v>20</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3">
+    <row r="18" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="13">
         <v>0</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
+      <c r="G18" s="24">
         <v>3</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="14">
         <v>20</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3">
+    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="17">
         <v>2</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19" s="25">
         <v>5</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="17">
         <v>20</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="3">
+    <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="16">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="17">
         <v>3</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>10</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>10</v>
+      </c>
+      <c r="G20" s="25">
         <v>5</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="17">
         <v>20</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3">
+    <row r="21" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="19">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="20">
         <v>-1</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="E21" s="20">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20">
+        <v>10</v>
+      </c>
+      <c r="G21" s="26">
+        <v>10</v>
+      </c>
+      <c r="H21" s="20">
         <v>20</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -2244,7 +1811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -2273,7 +1840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2283,7 +1850,7 @@
       <c r="C24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2293,7 +1860,7 @@
       <c r="C25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2304,27 +1871,26 @@
       <c r="G26" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2335,7 +1901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +1912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2357,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2368,7 +1934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2379,7 +1945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2390,7 +1956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2401,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2412,7 +1978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2423,7 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2434,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2445,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2456,7 +2022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2468,29 +2034,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
-    <col min="6" max="7" width="10.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="24.8518518518519" customWidth="1"/>
-    <col min="9" max="9" width="11.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1"/>
+    <col min="6" max="7" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="24.86328125" customWidth="1"/>
+    <col min="9" max="9" width="11.53125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2507,7 +2072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2092,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2570,7 +2135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2613,7 +2178,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2656,7 +2221,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2699,7 +2264,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2742,7 +2307,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2785,7 +2350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2828,7 +2393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2871,7 +2436,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2914,7 +2479,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2957,7 +2522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3001,23 +2566,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -3034,7 +2598,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3068,7 +2632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3085,7 +2649,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3102,7 +2666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3119,7 +2683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3136,7 +2700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3154,8 +2718,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Server/SpWarTable.xlsx
+++ b/Server/SpWarTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E\UnityProject\HeroScrollPj\Server\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC41D8F-F05C-4E8C-AEDC-5E1FDAEC1DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="SpWar" sheetId="2" r:id="rId1"/>
@@ -19,35 +13,23 @@
     <sheet name="RkReward" sheetId="4" r:id="rId4"/>
     <sheet name="RkCard" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -56,7 +38,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -64,14 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -80,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,14 +69,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -106,7 +84,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -500,8 +477,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,61 +504,366 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -577,15 +872,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,20 +886,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -614,15 +894,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -631,12 +935,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,15 +963,233 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -662,96 +1199,140 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1009,888 +1590,887 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.13274336283186" defaultRowHeight="13.85" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="4"/>
-    <col min="2" max="2" width="12.86328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="4"/>
+    <col min="1" max="1" width="9.13274336283186" style="8"/>
+    <col min="2" max="2" width="12.8672566371681" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.8672566371681" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.2035398230088" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.13274336283186" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:5">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:4">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.13274336283186" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.3984375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="11.73046875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="52.1328125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="4"/>
+    <col min="1" max="1" width="4.60176991150442" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.60176991150442" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.6017699115044" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.8672566371681" style="8" customWidth="1"/>
+    <col min="5" max="6" width="10.3982300884956" style="8" customWidth="1"/>
+    <col min="7" max="8" width="11.7345132743363" style="8" customWidth="1"/>
+    <col min="9" max="9" width="52.1327433628319" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.13274336283186" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8">
+    <row r="3" s="3" customFormat="1" spans="1:9">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="3">
         <v>-1</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="3">
         <v>15</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="3">
         <v>50</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" s="3" customFormat="1" spans="1:9">
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="3">
         <v>-1</v>
       </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="3">
         <v>19</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="3">
         <v>35</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" s="4" customFormat="1" spans="1:9">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="13">
         <v>0</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="4">
         <v>20</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
+    <row r="7" s="5" customFormat="1" spans="1:9">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <v>10</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="5">
         <v>20</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="18">
+    <row r="8" s="6" customFormat="1" spans="1:9">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="6">
         <v>-1</v>
       </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="6">
         <v>20</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21">
+    <row r="9" s="4" customFormat="1" spans="1:9">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
       <c r="B9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>15</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+    <row r="10" s="5" customFormat="1" spans="1:9">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
         <v>10</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="5">
         <v>3</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="5">
         <v>20</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23">
+    <row r="11" s="6" customFormat="1" spans="1:9">
+      <c r="A11" s="20">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="6">
         <v>-1</v>
       </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
         <v>10</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="6">
         <v>12</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="6">
         <v>50</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" s="4" customFormat="1" spans="1:9">
       <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13" s="13">
         <v>0</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
         <v>10</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="4">
         <v>20</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
+    <row r="14" s="5" customFormat="1" spans="1:9">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <v>3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="5">
         <v>20</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
+    <row r="15" s="5" customFormat="1" spans="1:9">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
         <v>10</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <v>3</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="5">
         <v>20</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+    <row r="16" s="5" customFormat="1" spans="1:9">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>3</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
         <v>10</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="22">
         <v>5</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="5">
         <v>20</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="18">
+    <row r="17" s="6" customFormat="1" spans="1:9">
+      <c r="A17" s="16">
         <v>14</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>4</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="6">
         <v>-1</v>
       </c>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <v>10</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="23">
         <v>5</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="6">
         <v>20</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" s="4" customFormat="1" spans="1:9">
       <c r="A18" s="12">
         <v>15</v>
       </c>
       <c r="B18" s="13">
         <v>0</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="21">
         <v>3</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="4">
         <v>20</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
+    <row r="19" s="5" customFormat="1" spans="1:9">
+      <c r="A19" s="14">
         <v>16</v>
       </c>
-      <c r="B19" s="16">
-        <v>1</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="22">
         <v>5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
+    <row r="20" s="5" customFormat="1" spans="1:9">
+      <c r="A20" s="14">
         <v>17</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>2</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="17">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17">
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>10</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="22">
         <v>5</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="5">
         <v>20</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="18">
+    <row r="21" s="6" customFormat="1" spans="1:9">
+      <c r="A21" s="16">
         <v>18</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="6">
         <v>-1</v>
       </c>
-      <c r="E21" s="20">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
         <v>10</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="23">
         <v>10</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="6">
         <v>20</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9">
+      <c r="A22" s="24">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="7">
         <v>0</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
         <v>10</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="25">
         <v>18</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="8">
         <v>50</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9">
+      <c r="A23" s="24">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="8">
         <v>-1</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
         <v>10</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="25">
         <v>3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="8">
         <v>20</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
+    <row r="24" spans="1:7">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <v>2</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
+      <c r="C24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="7">
         <v>3</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
+      <c r="C25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="7">
         <v>4</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="C26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.7964601769912" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6017699115044" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1901,7 +2481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +2492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1923,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1934,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1945,7 +2525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1956,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1967,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1978,7 +2558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1989,7 +2569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2000,7 +2580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2011,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2022,7 +2602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2034,28 +2614,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col min="5" max="5" width="19.53125" customWidth="1"/>
-    <col min="6" max="7" width="10.86328125" customWidth="1"/>
-    <col min="8" max="8" width="24.86328125" customWidth="1"/>
-    <col min="9" max="9" width="11.53125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5309734513274" customWidth="1"/>
+    <col min="6" max="7" width="10.8672566371681" customWidth="1"/>
+    <col min="8" max="8" width="24.8672566371681" customWidth="1"/>
+    <col min="9" max="9" width="11.5309734513274" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2072,7 +2653,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2673,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2135,7 +2716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2178,7 +2759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2221,7 +2802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2264,7 +2845,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2307,7 +2888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2350,7 +2931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2393,7 +2974,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2436,7 +3017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2479,7 +3060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2522,7 +3103,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2566,22 +3147,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2598,7 +3180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2632,7 +3214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2649,7 +3231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2666,7 +3248,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2683,7 +3265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2700,7 +3282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2718,8 +3300,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>